--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A89006-C0B4-4424-B6AC-FC9BA57C765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02EA9E-5099-415F-914C-81E472F6A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>Mês</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Cont. Dízimo</t>
+  </si>
+  <si>
+    <t>Total Real</t>
+  </si>
+  <si>
+    <t>Mensal</t>
   </si>
 </sst>
 </file>
@@ -924,14 +930,14 @@
     <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,7 +1581,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2217,7 +2223,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2613,7 +2619,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4525,10 +4531,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:H12" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B9:H12" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H506">
-    <sortCondition ref="B9:B506"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:H22" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B9:H22" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H22">
+    <sortCondition ref="B9:B22"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Data" dataDxfId="8"/>
@@ -4835,11 +4841,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:I531"/>
+  <dimension ref="A2:I541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4874,15 +4880,15 @@
         <v>49</v>
       </c>
       <c r="C3" s="20">
-        <f>SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B3) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B3)</f>
-        <v>145</v>
+        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
+        <v>135</v>
       </c>
       <c r="D3" s="100" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="81">
         <f ca="1">VLOOKUP(D2,Resumo!A3:I14,9,FALSE)</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F3" s="89"/>
       <c r="H3" s="63"/>
@@ -4892,7 +4898,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="20">
-        <f>SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B4) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B4)</f>
+        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -4910,29 +4916,34 @@
         <v>46</v>
       </c>
       <c r="C5" s="20">
-        <f>SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B5) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B5)</f>
+        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E5" s="81">
-        <f>Resumo!I15</f>
-        <v>145</v>
+        <f ca="1">VLOOKUP(D2,Resumo!A3:I14,8,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="F5" s="89"/>
       <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C6" s="20">
-        <f>SUM(C3:C5)</f>
-        <v>145</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="89"/>
+        <f ca="1">SUM(C3:C5)</f>
+        <v>135</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="81">
+        <f>Resumo!I15</f>
+        <v>135</v>
+      </c>
       <c r="F6" s="89"/>
       <c r="H6" s="63"/>
     </row>
@@ -4944,14 +4955,14 @@
       <c r="A8" s="105"/>
       <c r="B8" s="106">
         <f>SUBTOTAL(2,Tabela1[Data])</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F8" s="100" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="20">
         <f>SUBTOTAL(9,Tabela1[Valor])</f>
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H8" s="63"/>
     </row>
@@ -4983,7 +4994,7 @@
         <v>44927</v>
       </c>
       <c r="C10" s="94" t="str">
-        <f t="shared" ref="C10:C28" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
+        <f t="shared" ref="C10:C23" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
         <v>Janeiro</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -5018,15 +5029,17 @@
         <v>49</v>
       </c>
       <c r="G11" s="95">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H11" s="101"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="93"/>
+      <c r="B12" s="93">
+        <v>44986</v>
+      </c>
       <c r="C12" s="94" t="str">
-        <f>IF(ISBLANK(B12),"",PROPER(TEXT(B12,"MMMM")))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Março</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="92"/>
@@ -5035,541 +5048,619 @@
       <c r="H12" s="101"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="88" t="str">
-        <f>IF(ISBLANK(B13),"",PROPER(TEXT(B13,"MMMM")))</f>
-        <v/>
-      </c>
+      <c r="B13" s="93">
+        <v>45017</v>
+      </c>
+      <c r="C13" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Abril</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="88" t="str">
+      <c r="B14" s="93">
+        <v>45047</v>
+      </c>
+      <c r="C14" s="94" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>Maio</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="101"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="88" t="str">
-        <f t="shared" ref="C15:C25" si="1">IF(ISBLANK(B15),"",PROPER(TEXT(B15,"MMMM")))</f>
-        <v/>
-      </c>
+      <c r="B15" s="93">
+        <v>45078</v>
+      </c>
+      <c r="C15" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Junho</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B16" s="93">
+        <v>45108</v>
+      </c>
+      <c r="C16" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Julho</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B17" s="93">
+        <v>45139</v>
+      </c>
+      <c r="C17" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Agosto</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="101"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B18" s="93">
+        <v>45170</v>
+      </c>
+      <c r="C18" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Setembro</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B19" s="93">
+        <v>45200</v>
+      </c>
+      <c r="C19" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Outubro</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B20" s="93">
+        <v>45231</v>
+      </c>
+      <c r="C20" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Novembro</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B21" s="93">
+        <v>45261</v>
+      </c>
+      <c r="C21" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>Dezembro</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C24:C38" si="1">IF(ISBLANK(B24),"",PROPER(TEXT(B24,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:C35" si="2">IF(ISBLANK(B25),"",PROPER(TEXT(B25,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="102"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="102"/>
+      <c r="C29" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="102"/>
+      <c r="C30" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="102"/>
+      <c r="C31" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I31" s="63" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="102"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="G33" s="63"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="102"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
-      <c r="G39" s="63"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="88" t="str">
-        <f t="shared" ref="C40:C98" si="2">IF(ISBLANK(B40),"",PROPER(TEXT(B40,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="102"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="102"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="102"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="63"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="102"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="G43" s="63"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="G44" s="63"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="G45" s="63"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="G46" s="63"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="G47" s="63"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="G48" s="63"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="G49" s="63"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C50" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C50:C108" si="3">IF(ISBLANK(B50),"",PROPER(TEXT(B50,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C51" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C58" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C61" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C62" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C63" s="88" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="88" t="str">
-        <f t="shared" ref="C99:C162" si="3">IF(ISBLANK(B99),"",PROPER(TEXT(B99,"MMMM")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5629,331 +5720,331 @@
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C109:C172" si="4">IF(ISBLANK(B109),"",PROPER(TEXT(B109,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="88" t="str">
-        <f t="shared" ref="C163:C226" si="4">IF(ISBLANK(B163),"",PROPER(TEXT(B163,"MMMM")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -6013,331 +6104,331 @@
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C173:C236" si="5">IF(ISBLANK(B173),"",PROPER(TEXT(B173,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="88" t="str">
-        <f t="shared" ref="C227:C290" si="5">IF(ISBLANK(B227),"",PROPER(TEXT(B227,"MMMM")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6397,331 +6488,331 @@
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C237:C300" si="6">IF(ISBLANK(B237),"",PROPER(TEXT(B237,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="88" t="str">
-        <f t="shared" ref="C291:C354" si="6">IF(ISBLANK(B291),"",PROPER(TEXT(B291,"MMMM")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6781,331 +6872,331 @@
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C301:C364" si="7">IF(ISBLANK(B301),"",PROPER(TEXT(B301,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="88" t="str">
-        <f t="shared" ref="C355:C418" si="7">IF(ISBLANK(B355),"",PROPER(TEXT(B355,"MMMM")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7165,331 +7256,331 @@
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C365:C428" si="8">IF(ISBLANK(B365),"",PROPER(TEXT(B365,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="88" t="str">
-        <f t="shared" ref="C419:C482" si="8">IF(ISBLANK(B419),"",PROPER(TEXT(B419,"MMMM")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7549,331 +7640,331 @@
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C429:C492" si="9">IF(ISBLANK(B429),"",PROPER(TEXT(B429,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482" s="88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483" s="88" t="str">
-        <f t="shared" ref="C483:C531" si="9">IF(ISBLANK(B483),"",PROPER(TEXT(B483,"MMMM")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7933,235 +8024,295 @@
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C493:C541" si="10">IF(ISBLANK(B493),"",PROPER(TEXT(B493,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531" s="88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" s="88" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8179,13 +8330,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E12" xr:uid="{E4F2BDDC-1223-4DFF-8087-7B85DF038B73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E22" xr:uid="{E4F2BDDC-1223-4DFF-8087-7B85DF038B73}">
       <formula1>INDIRECT(D10)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D12" xr:uid="{4E564D7B-00FF-4101-8D9D-5EA4D9B1919A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D22" xr:uid="{4E564D7B-00FF-4101-8D9D-5EA4D9B1919A}">
       <formula1>"Receitas, Perdas, Investimentos, Despesas"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12" xr:uid="{0D51CC9B-6F94-4F85-BAFC-26C786BB30BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F22" xr:uid="{0D51CC9B-6F94-4F85-BAFC-26C786BB30BC}">
       <formula1>Ativos</formula1>
     </dataValidation>
   </dataValidations>
@@ -9068,57 +9219,57 @@
       <c r="F4" s="7"/>
       <c r="G4" s="75">
         <f>G3-(SUM(G7:G15))+D4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H4" s="64"/>
       <c r="J4" s="75">
         <f>J3-(SUM(J7:J15))+G4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K4" s="64"/>
       <c r="M4" s="75">
         <f>M3-(SUM(M7:M15))+J4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N4" s="64"/>
       <c r="P4" s="75">
         <f>P3-(SUM(P7:P15))+M4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="64"/>
       <c r="S4" s="75">
         <f>S3-(SUM(S7:S15))+P4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="T4" s="64"/>
       <c r="V4" s="75">
         <f>V3-(SUM(V7:V15))+S4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="W4" s="64"/>
       <c r="Y4" s="75">
         <f>Y3-(SUM(Y7:Y15))+V4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Z4" s="64"/>
       <c r="AB4" s="75">
         <f>AB3-(SUM(AB7:AB15))+Y4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AC4" s="64"/>
       <c r="AE4" s="75">
         <f>AE3-(SUM(AE7:AE15))+AB4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AF4" s="64"/>
       <c r="AH4" s="75">
         <f>AH3-(SUM(AH7:AH15))+AE4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AI4" s="64"/>
       <c r="AK4" s="75">
         <f>AK3-SUM(AK7:AK15)+AH4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9161,7 +9312,7 @@
       <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="115" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="66"/>
@@ -9250,7 +9401,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -9266,7 +9417,7 @@
       </c>
       <c r="G7" s="91">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F7)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="2" t="str" cm="1">
@@ -9360,7 +9511,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -9459,7 +9610,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="66"/>
       <c r="C9" s="4" t="s">
         <v>38</v>
@@ -9558,7 +9709,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="66"/>
       <c r="C10" s="4" t="s">
         <v>36</v>
@@ -9657,7 +9808,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="66"/>
       <c r="C11" s="4" t="s">
         <v>35</v>
@@ -9756,7 +9907,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="66"/>
       <c r="C12" s="4" t="s">
         <v>40</v>
@@ -9855,7 +10006,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="66"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -9954,7 +10105,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="66"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -10189,77 +10340,77 @@
         <v>3</v>
       </c>
       <c r="B17" s="68"/>
-      <c r="C17" s="115">
+      <c r="C17" s="116">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="116">
+      <c r="F17" s="117">
         <f>SUM(G7:G15)</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="116"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="117"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="115">
+      <c r="I17" s="116">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="115"/>
+      <c r="J17" s="116"/>
       <c r="K17" s="69"/>
-      <c r="L17" s="116">
+      <c r="L17" s="117">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="116"/>
+      <c r="M17" s="117"/>
       <c r="N17" s="69"/>
-      <c r="O17" s="115">
+      <c r="O17" s="116">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="115"/>
+      <c r="P17" s="116"/>
       <c r="Q17" s="69"/>
-      <c r="R17" s="116">
+      <c r="R17" s="117">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="116"/>
+      <c r="S17" s="117"/>
       <c r="T17" s="69"/>
-      <c r="U17" s="115">
+      <c r="U17" s="116">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="115"/>
+      <c r="V17" s="116"/>
       <c r="W17" s="69"/>
-      <c r="X17" s="116">
+      <c r="X17" s="117">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="116"/>
+      <c r="Y17" s="117"/>
       <c r="Z17" s="69"/>
-      <c r="AA17" s="115">
+      <c r="AA17" s="116">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="115"/>
+      <c r="AB17" s="116"/>
       <c r="AC17" s="69"/>
-      <c r="AD17" s="116">
+      <c r="AD17" s="117">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="116"/>
+      <c r="AE17" s="117"/>
       <c r="AF17" s="69"/>
-      <c r="AG17" s="115">
+      <c r="AG17" s="116">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="115"/>
+      <c r="AH17" s="116"/>
       <c r="AI17" s="69"/>
-      <c r="AJ17" s="116">
+      <c r="AJ17" s="117">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="116"/>
+      <c r="AK17" s="117"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -10274,11 +10425,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -10287,6 +10433,11 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -10401,16 +10552,16 @@
       <c r="E4" s="39"/>
       <c r="F4" s="53">
         <f>SUM('Despesas - Mapa'!F17:G17)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="47">
         <f>I4-I3</f>
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="I4" s="50">
         <f>'Despesas - Mapa'!G4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10438,7 +10589,7 @@
       </c>
       <c r="I5" s="50">
         <f>'Despesas - Mapa'!J4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10466,7 +10617,7 @@
       </c>
       <c r="I6" s="50">
         <f>'Despesas - Mapa'!M4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10494,7 +10645,7 @@
       </c>
       <c r="I7" s="50">
         <f>'Despesas - Mapa'!P4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10522,7 +10673,7 @@
       </c>
       <c r="I8" s="50">
         <f>'Despesas - Mapa'!S4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10550,7 +10701,7 @@
       </c>
       <c r="I9" s="50">
         <f>'Despesas - Mapa'!V4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10578,7 +10729,7 @@
       </c>
       <c r="I10" s="50">
         <f>'Despesas - Mapa'!Y4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -10606,7 +10757,7 @@
       </c>
       <c r="I11" s="50">
         <f>'Despesas - Mapa'!AB4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -10634,7 +10785,7 @@
       </c>
       <c r="I12" s="50">
         <f>'Despesas - Mapa'!AE4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -10662,7 +10813,7 @@
       </c>
       <c r="I13" s="50">
         <f>'Despesas - Mapa'!AH4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -10690,7 +10841,7 @@
       </c>
       <c r="I14" s="50">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10709,7 +10860,7 @@
       <c r="E15" s="39"/>
       <c r="F15" s="53">
         <f>SUM(F3:F14)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="57" t="s">
@@ -10717,7 +10868,7 @@
       </c>
       <c r="I15" s="52">
         <f>'Resultado '!D9</f>
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -10736,7 +10887,7 @@
       <c r="E16" s="39"/>
       <c r="F16" s="54">
         <f>AVERAGE(F3:F14)</f>
-        <v>0.41666666666666669</v>
+        <v>1.25</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
@@ -10758,7 +10909,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="55">
         <f>SUM(F3:F8)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="39"/>
@@ -10861,7 +11012,7 @@
       </c>
       <c r="G3" s="35">
         <f>SUM('Despesas - Mapa'!D7,'Despesas - Mapa'!G7,'Despesas - Mapa'!J7,'Despesas - Mapa'!M7,'Despesas - Mapa'!P7,'Despesas - Mapa'!S7,'Despesas - Mapa'!V7,'Despesas - Mapa'!Y7,'Despesas - Mapa'!AB7,'Despesas - Mapa'!AE7,'Despesas - Mapa'!AH7,'Despesas - Mapa'!AK7)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -10921,7 +11072,7 @@
       </c>
       <c r="D6" s="25">
         <f>SUM('Despesas - Mapa'!D7:D14,'Despesas - Mapa'!G7:G14,'Despesas - Mapa'!J7:J14,'Despesas - Mapa'!M7:M14,'Despesas - Mapa'!P7:P14,'Despesas - Mapa'!S7:S14,'Despesas - Mapa'!V7:V14,'Despesas - Mapa'!Y7:Y14,'Despesas - Mapa'!AB7:AB14,'Despesas - Mapa'!AE7:AE14,'Despesas - Mapa'!AH7:AH14,'Despesas - Mapa'!AK7:AK14)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="34" t="str">
@@ -10967,7 +11118,7 @@
       </c>
       <c r="D8" s="25">
         <f>SUM(D6:D7)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="34" t="str">
@@ -10990,7 +11141,7 @@
       </c>
       <c r="D9" s="27">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="34" t="str">
@@ -11039,7 +11190,7 @@
       </c>
       <c r="G11" s="30">
         <f>SUM(G3:G10)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>

--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02EA9E-5099-415F-914C-81E472F6A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87EDE9A-1C51-4431-9FFF-6D5FDA2D6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Despesas - Mapa" sheetId="1" r:id="rId3"/>
     <sheet name="Resumo" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Resultado " sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Gráficos" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Resultado '!$G$2:$L$2</definedName>
@@ -1407,7 +1408,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E85-44B6-B259-9DD506ECC5E8}"/>
+              <c16:uniqueId val="{00000000-1191-4C5F-8E3C-CD0002F93C64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1618,7 +1619,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3E85-44B6-B259-9DD506ECC5E8}"/>
+              <c16:uniqueId val="{00000001-1191-4C5F-8E3C-CD0002F93C64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1761,7 +1762,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E85-44B6-B259-9DD506ECC5E8}"/>
+              <c16:uniqueId val="{00000002-1191-4C5F-8E3C-CD0002F93C64}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1997,7 +1998,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2011,13 +2012,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Resultado</a:t>
+              <a:t>Resultado Anual</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Anual</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2034,7 +2030,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2051,48 +2047,9 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2100,14 +2057,36 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2152,14 +2131,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2236,7 +2214,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90C2-4815-8468-5B88CC82C1EA}"/>
+              <c16:uniqueId val="{00000000-DB45-4794-9E2F-2E3C3101330E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2248,12 +2226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
         <c:axId val="679946559"/>
         <c:axId val="679944159"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="679946559"/>
         <c:scaling>
@@ -2267,8 +2244,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2306,20 +2289,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2401,7 +2370,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2433,7 +2402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2450,48 +2419,9 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -2499,14 +2429,36 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2551,14 +2503,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2647,7 +2598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCB0-4C53-95A3-B2E0DCF50D69}"/>
+              <c16:uniqueId val="{00000000-DAD2-45E9-AD95-0F551541BAF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2659,12 +2610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
         <c:axId val="679940799"/>
         <c:axId val="679938399"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="679940799"/>
         <c:scaling>
@@ -2678,8 +2628,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2717,20 +2673,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2741,7 +2683,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -3425,7 +3367,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3436,7 +3378,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3448,6 +3390,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3455,7 +3408,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3471,7 +3424,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3490,23 +3443,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3515,32 +3460,88 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3555,30 +3556,59 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3600,15 +3630,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3618,7 +3646,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3627,14 +3655,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3643,17 +3670,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3662,7 +3688,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3681,30 +3707,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3714,16 +3745,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3733,17 +3775,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3752,17 +3793,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3783,7 +3823,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3791,7 +3831,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3804,6 +3844,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3811,10 +3864,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3835,7 +3888,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3844,14 +3897,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3872,20 +3924,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3906,20 +3957,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3930,7 +3975,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3942,6 +3987,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3949,7 +4005,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3965,7 +4021,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3984,23 +4040,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4009,32 +4057,88 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -4049,30 +4153,59 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4094,15 +4227,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4112,7 +4243,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4121,14 +4252,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4137,17 +4267,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4156,7 +4285,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4175,30 +4304,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4208,16 +4342,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4227,17 +4372,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4246,17 +4390,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4277,7 +4420,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4285,7 +4428,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4298,6 +4441,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4305,10 +4461,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4329,7 +4485,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4338,14 +4494,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4366,20 +4521,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4400,14 +4554,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4422,62 +4570,23 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523089</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67062</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>225517</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DCCC71-30C9-FB50-8239-6B9BBFA3349E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBB5BA1-CE3F-4E37-934C-7DCBD3FD362B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405845</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19827</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2982B13D-8FAA-E548-DDF0-88691A5BABEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4493,27 +4602,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>412088</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226339</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>143030</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>18440</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353586</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46ECDAE-98B5-298D-6305-3E8B94A55DD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCC7714-0040-4DC7-978A-7BFFC7D523ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4522,6 +4633,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353584</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48DE9EA-0077-471B-9A96-00B75572E91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10469,7 +10618,9 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0"/>
+    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10945,7 +11096,6 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10956,7 +11106,9 @@
   </sheetPr>
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11246,6 +11398,21 @@
   <ignoredErrors>
     <ignoredError sqref="D6:D7" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD330F4-3FAE-447F-BF05-82EFBCBD7BD0}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Documents\Importantes\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87EDE9A-1C51-4431-9FFF-6D5FDA2D6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72FF0-E049-4D78-9BC5-3C4402F93586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="Investimentos">'Receitas - Mapa'!$A$15:$A$16</definedName>
     <definedName name="Perdas">'Receitas - Mapa'!$A$9:$A$11</definedName>
     <definedName name="Receitas">'Receitas - Mapa'!$A$4:$A$6</definedName>
+    <definedName name="Transferir">'Saldo &amp; Mov.'!$B$3:$B$5</definedName>
     <definedName name="Z_12641207_4FA9_4498_AEA1_9BC1962A4F9A_.wvu.Rows" localSheetId="2" hidden="1">'Despesas - Mapa'!$6:$6,'Despesas - Mapa'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Mês</t>
   </si>
@@ -657,7 +658,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -853,52 +854,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,17 +895,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,11 +981,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1002,11 +1006,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1027,11 +1031,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1042,11 +1046,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1067,11 +1071,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="mmmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1083,11 +1087,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="mmmm"/>
       <fill>
@@ -1105,11 +1109,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="dd/mm"/>
       <fill>
@@ -1127,11 +1131,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1582,7 +1586,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1907,7 +1911,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1998,7 +2002,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2011,7 +2015,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1200"/>
               <a:t>Resultado Anual</a:t>
             </a:r>
           </a:p>
@@ -2030,7 +2034,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2201,7 +2205,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2370,7 +2374,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2383,7 +2387,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1200"/>
               <a:t>Despesas Fixas</a:t>
             </a:r>
           </a:p>
@@ -2402,7 +2406,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2570,7 +2574,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4997,86 +5001,86 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="63" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="87" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="88" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="63" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="103" customWidth="1"/>
-    <col min="9" max="9" width="6" style="63" customWidth="1"/>
-    <col min="10" max="10" width="10" style="63" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="6" style="107" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="110" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="109" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="107" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="107" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="108" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="111" customWidth="1"/>
+    <col min="9" max="9" width="6" style="107" customWidth="1"/>
+    <col min="10" max="10" width="10" style="107" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114" t="str">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="89"/>
-      <c r="H2" s="63"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="108"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="20">
-        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
-        <v>135</v>
-      </c>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="20" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B3,Tabela1[Valor])</f>
+        <v>150</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="81">
         <f ca="1">VLOOKUP(D2,Resumo!A3:I14,9,FALSE)</f>
-        <v>135</v>
-      </c>
-      <c r="F3" s="89"/>
-      <c r="H3" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="20">
-        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="20" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B4,Tabela1[Valor])</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="81">
         <f ca="1">ROUND(C6-E3,2)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="H4" s="63"/>
+      <c r="F4" s="108"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="20">
-        <f ca="1">SUMIFS(Tabela1[Valor],Tabela1[Operação],"Receitas",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="20" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B5,Tabela1[Valor])</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="96" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="81">
         <f ca="1">VLOOKUP(D2,Resumo!A3:I14,8,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="H5" s="63"/>
+      <c r="F5" s="108"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
@@ -5084,3383 +5088,3372 @@
       </c>
       <c r="C6" s="20">
         <f ca="1">SUM(C3:C5)</f>
-        <v>135</v>
-      </c>
-      <c r="D6" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="96" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="81">
         <f>Resumo!I15</f>
-        <v>135</v>
-      </c>
-      <c r="F6" s="89"/>
-      <c r="H6" s="63"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="H7" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="F6" s="108"/>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="107"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="106">
+      <c r="A8" s="93"/>
+      <c r="B8" s="94">
         <f>SUBTOTAL(2,Tabela1[Data])</f>
         <v>12</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="91" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="20">
         <f>SUBTOTAL(9,Tabela1[Valor])</f>
-        <v>165</v>
-      </c>
-      <c r="H8" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="110" t="s">
+      <c r="C9" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="93">
+    <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="102">
         <v>44927</v>
       </c>
-      <c r="C10" s="94" t="str">
+      <c r="C10" s="103" t="str">
         <f t="shared" ref="C10:C23" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
         <v>Janeiro</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="105">
         <v>150</v>
       </c>
-      <c r="H10" s="101"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="93">
+      <c r="H10" s="106"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="102">
         <v>44958</v>
       </c>
-      <c r="C11" s="94" t="str">
+      <c r="C11" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Fevereiro</v>
       </c>
-      <c r="D11" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="95">
-        <v>15</v>
-      </c>
-      <c r="H11" s="101"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="93">
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="102">
         <v>44986</v>
       </c>
-      <c r="C12" s="94" t="str">
+      <c r="C12" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Março</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="101"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="93">
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="102">
         <v>45017</v>
       </c>
-      <c r="C13" s="94" t="str">
+      <c r="C13" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Abril</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="101"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="93">
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="102">
         <v>45047</v>
       </c>
-      <c r="C14" s="94" t="str">
+      <c r="C14" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Maio</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="101"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="93">
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="102">
         <v>45078</v>
       </c>
-      <c r="C15" s="94" t="str">
+      <c r="C15" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Junho</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="101"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="93">
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="102">
         <v>45108</v>
       </c>
-      <c r="C16" s="94" t="str">
+      <c r="C16" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Julho</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="101"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="93">
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="102">
         <v>45139</v>
       </c>
-      <c r="C17" s="94" t="str">
+      <c r="C17" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Agosto</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="101"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="93">
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="102">
         <v>45170</v>
       </c>
-      <c r="C18" s="94" t="str">
+      <c r="C18" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Setembro</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="101"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="93">
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="102">
         <v>45200</v>
       </c>
-      <c r="C19" s="94" t="str">
+      <c r="C19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Outubro</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="101"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="93">
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="102">
         <v>45231</v>
       </c>
-      <c r="C20" s="94" t="str">
+      <c r="C20" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Novembro</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="101"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="93">
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="102">
         <v>45261</v>
       </c>
-      <c r="C21" s="94" t="str">
+      <c r="C21" s="103" t="str">
         <f t="shared" si="0"/>
         <v>Dezembro</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="101"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="94" t="str">
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="109" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="101"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="88" t="str">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="109" t="str">
         <f t="shared" ref="C24:C38" si="1">IF(ISBLANK(B24),"",PROPER(TEXT(B24,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="88" t="str">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="109" t="str">
         <f t="shared" ref="C25:C35" si="2">IF(ISBLANK(B25),"",PROPER(TEXT(B25,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="88" t="str">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="88" t="str">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="88" t="str">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="88" t="str">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="88" t="str">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="88" t="str">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="63" t="s">
+      <c r="I31" s="107" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="88" t="str">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="88" t="str">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="88" t="str">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="88" t="str">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="88" t="str">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="88" t="str">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="88" t="str">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="102"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="102"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="102"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="102"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="102"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="G43" s="63"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="G44" s="63"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="G45" s="63"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="88" t="str">
+      <c r="G38" s="112"/>
+      <c r="H38" s="113"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="113"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="113"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="107"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="113"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="G43" s="107"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="G44" s="107"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="G45" s="107"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="G46" s="107"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="G47" s="107"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="G48" s="107"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="G49" s="107"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="109" t="str">
         <f t="shared" ref="C50:C108" si="3">IF(ISBLANK(B50),"",PROPER(TEXT(B50,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="88" t="str">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="88" t="str">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="88" t="str">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="88" t="str">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="88" t="str">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="88" t="str">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="88" t="str">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="88" t="str">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="88" t="str">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="88" t="str">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="88" t="str">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="88" t="str">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="88" t="str">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="88" t="str">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="88" t="str">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="88" t="str">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="88" t="str">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="88" t="str">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="88" t="str">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="88" t="str">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="88" t="str">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="88" t="str">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="88" t="str">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="88" t="str">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="88" t="str">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="88" t="str">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="88" t="str">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="88" t="str">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="88" t="str">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="88" t="str">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="88" t="str">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="88" t="str">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="88" t="str">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="88" t="str">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="88" t="str">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="88" t="str">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="88" t="str">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="88" t="str">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="88" t="str">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="88" t="str">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="88" t="str">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="88" t="str">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="88" t="str">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="88" t="str">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="88" t="str">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="88" t="str">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="88" t="str">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="88" t="str">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="88" t="str">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="88" t="str">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="88" t="str">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="88" t="str">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="88" t="str">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="88" t="str">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="88" t="str">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="88" t="str">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="88" t="str">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="88" t="str">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="88" t="str">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="109" t="str">
         <f t="shared" ref="C109:C172" si="4">IF(ISBLANK(B109),"",PROPER(TEXT(B109,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="88" t="str">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="88" t="str">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="88" t="str">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="88" t="str">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="88" t="str">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="88" t="str">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="88" t="str">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="88" t="str">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="88" t="str">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="88" t="str">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="88" t="str">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="88" t="str">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="88" t="str">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="88" t="str">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="88" t="str">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="88" t="str">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="88" t="str">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="88" t="str">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="88" t="str">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="88" t="str">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="88" t="str">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="88" t="str">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="88" t="str">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="88" t="str">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="88" t="str">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="88" t="str">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="88" t="str">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="88" t="str">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="88" t="str">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="88" t="str">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="88" t="str">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="88" t="str">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="88" t="str">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="88" t="str">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="88" t="str">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="88" t="str">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="88" t="str">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="88" t="str">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="88" t="str">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="88" t="str">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="88" t="str">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="88" t="str">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="88" t="str">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="88" t="str">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="88" t="str">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="88" t="str">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="88" t="str">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="88" t="str">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="88" t="str">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="88" t="str">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="88" t="str">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="88" t="str">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="88" t="str">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="88" t="str">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="88" t="str">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="88" t="str">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="88" t="str">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="88" t="str">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="88" t="str">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="88" t="str">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="88" t="str">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="88" t="str">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="88" t="str">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="109" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="88" t="str">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="109" t="str">
         <f t="shared" ref="C173:C236" si="5">IF(ISBLANK(B173),"",PROPER(TEXT(B173,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="88" t="str">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="88" t="str">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="88" t="str">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="88" t="str">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="88" t="str">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="88" t="str">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="88" t="str">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="88" t="str">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="88" t="str">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="88" t="str">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="88" t="str">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="88" t="str">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="88" t="str">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="88" t="str">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="88" t="str">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="88" t="str">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="88" t="str">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="88" t="str">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="88" t="str">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="88" t="str">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="88" t="str">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="88" t="str">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="88" t="str">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="88" t="str">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="88" t="str">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="88" t="str">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="88" t="str">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="88" t="str">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="88" t="str">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="88" t="str">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="88" t="str">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="88" t="str">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="88" t="str">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="88" t="str">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="88" t="str">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" s="88" t="str">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" s="88" t="str">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" s="88" t="str">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="88" t="str">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="88" t="str">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="88" t="str">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" s="88" t="str">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" s="88" t="str">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" s="88" t="str">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" s="88" t="str">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" s="88" t="str">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" s="88" t="str">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" s="88" t="str">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" s="88" t="str">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" s="88" t="str">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" s="88" t="str">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="88" t="str">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="88" t="str">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="88" t="str">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="88" t="str">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="88" t="str">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="88" t="str">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="88" t="str">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="88" t="str">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="88" t="str">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="88" t="str">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="88" t="str">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="88" t="str">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="88" t="str">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="109" t="str">
         <f t="shared" ref="C237:C300" si="6">IF(ISBLANK(B237),"",PROPER(TEXT(B237,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="88" t="str">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="88" t="str">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="88" t="str">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="88" t="str">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="88" t="str">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="88" t="str">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="88" t="str">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="88" t="str">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="88" t="str">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="88" t="str">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="88" t="str">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="88" t="str">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="88" t="str">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="88" t="str">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="88" t="str">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="88" t="str">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="88" t="str">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="88" t="str">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="88" t="str">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="88" t="str">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="88" t="str">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="88" t="str">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="88" t="str">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="88" t="str">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="88" t="str">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="88" t="str">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="88" t="str">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="88" t="str">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="88" t="str">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="88" t="str">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="88" t="str">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="88" t="str">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="88" t="str">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="88" t="str">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="88" t="str">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="88" t="str">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="88" t="str">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="88" t="str">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="88" t="str">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="88" t="str">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="88" t="str">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="88" t="str">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="88" t="str">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="88" t="str">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="88" t="str">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="88" t="str">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="88" t="str">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="88" t="str">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="88" t="str">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="88" t="str">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="88" t="str">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="88" t="str">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="88" t="str">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="88" t="str">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="88" t="str">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="88" t="str">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="88" t="str">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="88" t="str">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="88" t="str">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="88" t="str">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="88" t="str">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="88" t="str">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="88" t="str">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="88" t="str">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="109" t="str">
         <f t="shared" ref="C301:C364" si="7">IF(ISBLANK(B301),"",PROPER(TEXT(B301,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="88" t="str">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="88" t="str">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="88" t="str">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C304" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="88" t="str">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="88" t="str">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="88" t="str">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C307" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="88" t="str">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="88" t="str">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C309" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="88" t="str">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="88" t="str">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C311" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="88" t="str">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C312" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="88" t="str">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="88" t="str">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C314" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="88" t="str">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C315" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="88" t="str">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="88" t="str">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C317" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="88" t="str">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C318" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="88" t="str">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="88" t="str">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C320" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="88" t="str">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="88" t="str">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C322" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="88" t="str">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="88" t="str">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="88" t="str">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="88" t="str">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="88" t="str">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C327" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="88" t="str">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="88" t="str">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="88" t="str">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="88" t="str">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="88" t="str">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C332" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="88" t="str">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="88" t="str">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="88" t="str">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="88" t="str">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="88" t="str">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="88" t="str">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="88" t="str">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="88" t="str">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="88" t="str">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="88" t="str">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C342" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="88" t="str">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="88" t="str">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="88" t="str">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="88" t="str">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="88" t="str">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="88" t="str">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="88" t="str">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C349" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="88" t="str">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="88" t="str">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="88" t="str">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="88" t="str">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="88" t="str">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="88" t="str">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="88" t="str">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C356" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="88" t="str">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="88" t="str">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="88" t="str">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="88" t="str">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="88" t="str">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="88" t="str">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="88" t="str">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="88" t="str">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C364" s="109" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="88" t="str">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="109" t="str">
         <f t="shared" ref="C365:C428" si="8">IF(ISBLANK(B365),"",PROPER(TEXT(B365,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="88" t="str">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="88" t="str">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="88" t="str">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="88" t="str">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="88" t="str">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C370" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="88" t="str">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C371" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="88" t="str">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C372" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="88" t="str">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C373" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="88" t="str">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C374" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="88" t="str">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C375" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="88" t="str">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C376" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="88" t="str">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C377" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="88" t="str">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C378" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="88" t="str">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C379" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="88" t="str">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C380" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="88" t="str">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C381" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="88" t="str">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C382" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="88" t="str">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C383" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="88" t="str">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C384" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="88" t="str">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C385" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="88" t="str">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C386" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="88" t="str">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C387" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="88" t="str">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C388" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="88" t="str">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C389" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="88" t="str">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C390" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="88" t="str">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C391" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="88" t="str">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C392" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="88" t="str">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C393" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="88" t="str">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C394" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="88" t="str">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C395" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="88" t="str">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C396" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="88" t="str">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C397" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="88" t="str">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C398" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="88" t="str">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C399" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="88" t="str">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C400" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="88" t="str">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C401" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="88" t="str">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C402" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="88" t="str">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C403" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="88" t="str">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C404" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="88" t="str">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C405" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="88" t="str">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C406" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="88" t="str">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C407" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="88" t="str">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C408" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="88" t="str">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C409" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="88" t="str">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C410" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="88" t="str">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C411" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="88" t="str">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C412" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="88" t="str">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C413" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="88" t="str">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C414" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="88" t="str">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C415" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="88" t="str">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C416" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="88" t="str">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C417" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="88" t="str">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C418" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="88" t="str">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C419" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="88" t="str">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C420" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="88" t="str">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C421" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="88" t="str">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C422" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="88" t="str">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C423" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="88" t="str">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C424" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="88" t="str">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C425" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="88" t="str">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C426" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="88" t="str">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C427" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="88" t="str">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C428" s="109" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="88" t="str">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C429" s="109" t="str">
         <f t="shared" ref="C429:C492" si="9">IF(ISBLANK(B429),"",PROPER(TEXT(B429,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="88" t="str">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C430" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="88" t="str">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C431" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="88" t="str">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C432" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="88" t="str">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C433" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="88" t="str">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C434" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="88" t="str">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C435" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="88" t="str">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C436" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="88" t="str">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C437" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="88" t="str">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C438" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="88" t="str">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C439" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="88" t="str">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C440" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="88" t="str">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C441" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="88" t="str">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C442" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="88" t="str">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C443" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="88" t="str">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C444" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="88" t="str">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C445" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="88" t="str">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C446" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="88" t="str">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C447" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="88" t="str">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C448" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="88" t="str">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C449" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="88" t="str">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C450" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="88" t="str">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C451" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="88" t="str">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C452" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="88" t="str">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C453" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="88" t="str">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C454" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="88" t="str">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C455" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="88" t="str">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C456" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="88" t="str">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C457" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="88" t="str">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C458" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="88" t="str">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C459" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="88" t="str">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C460" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="88" t="str">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C461" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="88" t="str">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C462" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="88" t="str">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C463" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="88" t="str">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C464" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="88" t="str">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C465" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="88" t="str">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C466" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="88" t="str">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C467" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="88" t="str">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C468" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="88" t="str">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C469" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="88" t="str">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C470" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="88" t="str">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C471" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="88" t="str">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C472" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="88" t="str">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C473" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="88" t="str">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C474" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="88" t="str">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C475" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="88" t="str">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C476" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="88" t="str">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C477" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="88" t="str">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C478" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="88" t="str">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C479" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="88" t="str">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C480" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="88" t="str">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C481" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="88" t="str">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C482" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="88" t="str">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C483" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="88" t="str">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C484" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="88" t="str">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C485" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="88" t="str">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C486" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="88" t="str">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C487" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="88" t="str">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C488" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="88" t="str">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C489" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="88" t="str">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C490" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="88" t="str">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C491" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="88" t="str">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C492" s="109" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="88" t="str">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C493" s="109" t="str">
         <f t="shared" ref="C493:C541" si="10">IF(ISBLANK(B493),"",PROPER(TEXT(B493,"MMMM")))</f>
         <v/>
       </c>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="88" t="str">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C494" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="88" t="str">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C495" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="88" t="str">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C496" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="88" t="str">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C497" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="88" t="str">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C498" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="88" t="str">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C499" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="88" t="str">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C500" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="88" t="str">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C501" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="88" t="str">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C502" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="88" t="str">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C503" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="88" t="str">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C504" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="88" t="str">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C505" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="88" t="str">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C506" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="88" t="str">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C507" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="88" t="str">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C508" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="88" t="str">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C509" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="88" t="str">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C510" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="88" t="str">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C511" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="88" t="str">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C512" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="88" t="str">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C513" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="88" t="str">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C514" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="88" t="str">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C515" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="88" t="str">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C516" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="88" t="str">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C517" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="88" t="str">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C518" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="88" t="str">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C519" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="88" t="str">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C520" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" s="88" t="str">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C521" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" s="88" t="str">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C522" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" s="88" t="str">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C523" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" s="88" t="str">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C524" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" s="88" t="str">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C525" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" s="88" t="str">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C526" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" s="88" t="str">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C527" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C528" s="88" t="str">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C528" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C529" s="88" t="str">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C529" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C530" s="88" t="str">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C530" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C531" s="88" t="str">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C531" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C532" s="88" t="str">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C532" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C533" s="88" t="str">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C533" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534" s="88" t="str">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C534" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535" s="88" t="str">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C535" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C536" s="88" t="str">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C536" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C537" s="88" t="str">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C537" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C538" s="88" t="str">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C538" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C539" s="88" t="str">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C539" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C540" s="88" t="str">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C540" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C541" s="88" t="str">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C541" s="109" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8483,7 +8476,7 @@
       <formula1>INDIRECT(D10)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D22" xr:uid="{4E564D7B-00FF-4101-8D9D-5EA4D9B1919A}">
-      <formula1>"Receitas, Perdas, Investimentos, Despesas"</formula1>
+      <formula1>"Receitas, Perdas, Investimentos, Despesas, Transferir"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F22" xr:uid="{0D51CC9B-6F94-4F85-BAFC-26C786BB30BC}">
       <formula1>Ativos</formula1>
@@ -8557,7 +8550,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="90" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8736,7 +8729,7 @@
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="90" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="22"/>
@@ -8915,51 +8908,51 @@
       <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="101">
         <f>IF((SUM(B4:B6)-SUM(B9:B10)) &gt; 10, ((SUM(B4:B6)-SUM(B9:B10))*0.1), (0))-B11</f>
         <v>15</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="101">
         <f t="shared" ref="C12:M12" si="0">IF((SUM(C4:C6)-SUM(C9:C10)) &gt; 10, ((SUM(C4:C6)-SUM(C9:C10))*0.1), (0))-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="113">
+      <c r="K12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="113">
+      <c r="M12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8980,7 +8973,7 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="22"/>
@@ -9118,7 +9111,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="89" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="20">
@@ -9235,7 +9228,7 @@
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="87" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="77"/>
@@ -9368,57 +9361,57 @@
       <c r="F4" s="7"/>
       <c r="G4" s="75">
         <f>G3-(SUM(G7:G15))+D4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H4" s="64"/>
       <c r="J4" s="75">
         <f>J3-(SUM(J7:J15))+G4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K4" s="64"/>
       <c r="M4" s="75">
         <f>M3-(SUM(M7:M15))+J4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N4" s="64"/>
       <c r="P4" s="75">
         <f>P3-(SUM(P7:P15))+M4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="64"/>
       <c r="S4" s="75">
         <f>S3-(SUM(S7:S15))+P4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="T4" s="64"/>
       <c r="V4" s="75">
         <f>V3-(SUM(V7:V15))+S4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="W4" s="64"/>
       <c r="Y4" s="75">
         <f>Y3-(SUM(Y7:Y15))+V4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Z4" s="64"/>
       <c r="AB4" s="75">
         <f>AB3-(SUM(AB7:AB15))+Y4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AC4" s="64"/>
       <c r="AE4" s="75">
         <f>AE3-(SUM(AE7:AE15))+AB4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AF4" s="64"/>
       <c r="AH4" s="75">
         <f>AH3-(SUM(AH7:AH15))+AE4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AI4" s="64"/>
       <c r="AK4" s="75">
         <f>AK3-SUM(AK7:AK15)+AH4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9461,7 +9454,7 @@
       <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="118" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="66"/>
@@ -9550,7 +9543,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -9564,9 +9557,9 @@
         <f t="array" ref="F7:F15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F7)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="2" t="str" cm="1">
@@ -9582,7 +9575,7 @@
         <f t="array" ref="L7:L15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L7)</f>
         <v>0</v>
       </c>
@@ -9600,7 +9593,7 @@
         <f t="array" ref="R7:R15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="S7" s="91">
+      <c r="S7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R7)</f>
         <v>0</v>
       </c>
@@ -9618,7 +9611,7 @@
         <f t="array" ref="X7:X15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="Y7" s="91">
+      <c r="Y7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X7)</f>
         <v>0</v>
       </c>
@@ -9636,7 +9629,7 @@
         <f t="array" ref="AD7:AD15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AE7" s="91">
+      <c r="AE7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD7)</f>
         <v>0</v>
       </c>
@@ -9654,13 +9647,13 @@
         <f t="array" ref="AJ7:AJ15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AK7" s="91">
+      <c r="AK7" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -9673,7 +9666,7 @@
       <c r="F8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F8)</f>
         <v>0</v>
       </c>
@@ -9689,7 +9682,7 @@
       <c r="L8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="M8" s="91">
+      <c r="M8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L8)</f>
         <v>0</v>
       </c>
@@ -9705,7 +9698,7 @@
       <c r="R8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R8)</f>
         <v>0</v>
       </c>
@@ -9721,7 +9714,7 @@
       <c r="X8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="Y8" s="91">
+      <c r="Y8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X8)</f>
         <v>0</v>
       </c>
@@ -9737,7 +9730,7 @@
       <c r="AD8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AE8" s="91">
+      <c r="AE8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD8)</f>
         <v>0</v>
       </c>
@@ -9753,13 +9746,13 @@
       <c r="AJ8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AK8" s="91">
+      <c r="AK8" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="66"/>
       <c r="C9" s="4" t="s">
         <v>38</v>
@@ -9772,7 +9765,7 @@
       <c r="F9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F9)</f>
         <v>0</v>
       </c>
@@ -9788,7 +9781,7 @@
       <c r="L9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="M9" s="91">
+      <c r="M9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L9)</f>
         <v>0</v>
       </c>
@@ -9804,7 +9797,7 @@
       <c r="R9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="S9" s="91">
+      <c r="S9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R9)</f>
         <v>0</v>
       </c>
@@ -9820,7 +9813,7 @@
       <c r="X9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="Y9" s="91">
+      <c r="Y9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X9)</f>
         <v>0</v>
       </c>
@@ -9836,7 +9829,7 @@
       <c r="AD9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AE9" s="91">
+      <c r="AE9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD9)</f>
         <v>0</v>
       </c>
@@ -9852,13 +9845,13 @@
       <c r="AJ9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AK9" s="91">
+      <c r="AK9" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="66"/>
       <c r="C10" s="4" t="s">
         <v>36</v>
@@ -9871,7 +9864,7 @@
       <c r="F10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F10)</f>
         <v>0</v>
       </c>
@@ -9887,7 +9880,7 @@
       <c r="L10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L10)</f>
         <v>0</v>
       </c>
@@ -9903,7 +9896,7 @@
       <c r="R10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="S10" s="91">
+      <c r="S10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R10)</f>
         <v>0</v>
       </c>
@@ -9919,7 +9912,7 @@
       <c r="X10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="Y10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X10)</f>
         <v>0</v>
       </c>
@@ -9935,7 +9928,7 @@
       <c r="AD10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AE10" s="91">
+      <c r="AE10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD10)</f>
         <v>0</v>
       </c>
@@ -9951,13 +9944,13 @@
       <c r="AJ10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AK10" s="91">
+      <c r="AK10" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="66"/>
       <c r="C11" s="4" t="s">
         <v>35</v>
@@ -9970,7 +9963,7 @@
       <c r="F11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F11)</f>
         <v>0</v>
       </c>
@@ -9986,7 +9979,7 @@
       <c r="L11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="M11" s="91">
+      <c r="M11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L11)</f>
         <v>0</v>
       </c>
@@ -10002,7 +9995,7 @@
       <c r="R11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="S11" s="91">
+      <c r="S11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R11)</f>
         <v>0</v>
       </c>
@@ -10018,7 +10011,7 @@
       <c r="X11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="Y11" s="91">
+      <c r="Y11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X11)</f>
         <v>0</v>
       </c>
@@ -10034,7 +10027,7 @@
       <c r="AD11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AE11" s="91">
+      <c r="AE11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD11)</f>
         <v>0</v>
       </c>
@@ -10050,13 +10043,13 @@
       <c r="AJ11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AK11" s="91">
+      <c r="AK11" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="66"/>
       <c r="C12" s="4" t="s">
         <v>40</v>
@@ -10069,7 +10062,7 @@
       <c r="F12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F12)</f>
         <v>0</v>
       </c>
@@ -10085,7 +10078,7 @@
       <c r="L12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L12)</f>
         <v>0</v>
       </c>
@@ -10101,7 +10094,7 @@
       <c r="R12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="S12" s="91">
+      <c r="S12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R12)</f>
         <v>0</v>
       </c>
@@ -10117,7 +10110,7 @@
       <c r="X12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="Y12" s="91">
+      <c r="Y12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X12)</f>
         <v>0</v>
       </c>
@@ -10133,7 +10126,7 @@
       <c r="AD12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AE12" s="91">
+      <c r="AE12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD12)</f>
         <v>0</v>
       </c>
@@ -10149,13 +10142,13 @@
       <c r="AJ12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AK12" s="91">
+      <c r="AK12" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="66"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -10168,7 +10161,7 @@
       <c r="F13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F13)</f>
         <v>0</v>
       </c>
@@ -10184,7 +10177,7 @@
       <c r="L13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L13)</f>
         <v>0</v>
       </c>
@@ -10200,7 +10193,7 @@
       <c r="R13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="S13" s="91">
+      <c r="S13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R13)</f>
         <v>0</v>
       </c>
@@ -10216,7 +10209,7 @@
       <c r="X13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="Y13" s="91">
+      <c r="Y13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X13)</f>
         <v>0</v>
       </c>
@@ -10232,7 +10225,7 @@
       <c r="AD13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AE13" s="91">
+      <c r="AE13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD13)</f>
         <v>0</v>
       </c>
@@ -10248,13 +10241,13 @@
       <c r="AJ13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AK13" s="91">
+      <c r="AK13" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="66"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -10267,7 +10260,7 @@
       <c r="F14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F14)</f>
         <v>0</v>
       </c>
@@ -10283,7 +10276,7 @@
       <c r="L14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="M14" s="91">
+      <c r="M14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L14)</f>
         <v>0</v>
       </c>
@@ -10299,7 +10292,7 @@
       <c r="R14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="S14" s="91">
+      <c r="S14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R14)</f>
         <v>0</v>
       </c>
@@ -10315,7 +10308,7 @@
       <c r="X14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="Y14" s="91">
+      <c r="Y14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X14)</f>
         <v>0</v>
       </c>
@@ -10331,7 +10324,7 @@
       <c r="AD14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AE14" s="91">
+      <c r="AE14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD14)</f>
         <v>0</v>
       </c>
@@ -10347,13 +10340,13 @@
       <c r="AJ14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AK14" s="91">
+      <c r="AK14" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="67"/>
       <c r="C15" s="2" t="s">
         <v>53</v>
@@ -10366,7 +10359,7 @@
       <c r="F15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F15)</f>
         <v>0</v>
       </c>
@@ -10382,7 +10375,7 @@
       <c r="L15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="M15" s="91">
+      <c r="M15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L15)</f>
         <v>0</v>
       </c>
@@ -10398,7 +10391,7 @@
       <c r="R15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="S15" s="91">
+      <c r="S15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R15)</f>
         <v>0</v>
       </c>
@@ -10414,7 +10407,7 @@
       <c r="X15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="Y15" s="91">
+      <c r="Y15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X15)</f>
         <v>0</v>
       </c>
@@ -10430,7 +10423,7 @@
       <c r="AD15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AE15" s="91">
+      <c r="AE15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD15)</f>
         <v>0</v>
       </c>
@@ -10446,7 +10439,7 @@
       <c r="AJ15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AK15" s="91">
+      <c r="AK15" s="88">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ15)</f>
         <v>0</v>
       </c>
@@ -10485,7 +10478,7 @@
       <c r="AK16" s="86"/>
     </row>
     <row r="17" spans="1:37" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="95" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="68"/>
@@ -10497,7 +10490,7 @@
       <c r="E17" s="69"/>
       <c r="F17" s="117">
         <f>SUM(G7:G15)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17" s="117"/>
       <c r="H17" s="69"/>
@@ -10574,6 +10567,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -10582,11 +10580,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -10703,16 +10696,16 @@
       <c r="E4" s="39"/>
       <c r="F4" s="53">
         <f>SUM('Despesas - Mapa'!F17:G17)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="47">
         <f>I4-I3</f>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="50">
         <f>'Despesas - Mapa'!G4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10740,7 +10733,7 @@
       </c>
       <c r="I5" s="50">
         <f>'Despesas - Mapa'!J4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10768,7 +10761,7 @@
       </c>
       <c r="I6" s="50">
         <f>'Despesas - Mapa'!M4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10796,7 +10789,7 @@
       </c>
       <c r="I7" s="50">
         <f>'Despesas - Mapa'!P4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10824,7 +10817,7 @@
       </c>
       <c r="I8" s="50">
         <f>'Despesas - Mapa'!S4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10852,7 +10845,7 @@
       </c>
       <c r="I9" s="50">
         <f>'Despesas - Mapa'!V4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10880,7 +10873,7 @@
       </c>
       <c r="I10" s="50">
         <f>'Despesas - Mapa'!Y4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -10908,7 +10901,7 @@
       </c>
       <c r="I11" s="50">
         <f>'Despesas - Mapa'!AB4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -10936,7 +10929,7 @@
       </c>
       <c r="I12" s="50">
         <f>'Despesas - Mapa'!AE4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -10964,7 +10957,7 @@
       </c>
       <c r="I13" s="50">
         <f>'Despesas - Mapa'!AH4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -10992,7 +10985,7 @@
       </c>
       <c r="I14" s="50">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11011,7 +11004,7 @@
       <c r="E15" s="39"/>
       <c r="F15" s="53">
         <f>SUM(F3:F14)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="57" t="s">
@@ -11019,7 +11012,7 @@
       </c>
       <c r="I15" s="52">
         <f>'Resultado '!D9</f>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -11038,7 +11031,7 @@
       <c r="E16" s="39"/>
       <c r="F16" s="54">
         <f>AVERAGE(F3:F14)</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
@@ -11060,7 +11053,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="55">
         <f>SUM(F3:F8)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="39"/>
@@ -11134,15 +11127,15 @@
     </row>
     <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="120"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -11164,7 +11157,7 @@
       </c>
       <c r="G3" s="35">
         <f>SUM('Despesas - Mapa'!D7,'Despesas - Mapa'!G7,'Despesas - Mapa'!J7,'Despesas - Mapa'!M7,'Despesas - Mapa'!P7,'Despesas - Mapa'!S7,'Despesas - Mapa'!V7,'Despesas - Mapa'!Y7,'Despesas - Mapa'!AB7,'Despesas - Mapa'!AE7,'Despesas - Mapa'!AH7,'Despesas - Mapa'!AK7)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -11224,7 +11217,7 @@
       </c>
       <c r="D6" s="25">
         <f>SUM('Despesas - Mapa'!D7:D14,'Despesas - Mapa'!G7:G14,'Despesas - Mapa'!J7:J14,'Despesas - Mapa'!M7:M14,'Despesas - Mapa'!P7:P14,'Despesas - Mapa'!S7:S14,'Despesas - Mapa'!V7:V14,'Despesas - Mapa'!Y7:Y14,'Despesas - Mapa'!AB7:AB14,'Despesas - Mapa'!AE7:AE14,'Despesas - Mapa'!AH7:AH14,'Despesas - Mapa'!AK7:AK14)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="34" t="str">
@@ -11270,7 +11263,7 @@
       </c>
       <c r="D8" s="25">
         <f>SUM(D6:D7)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="34" t="str">
@@ -11293,7 +11286,7 @@
       </c>
       <c r="D9" s="27">
         <f>'Despesas - Mapa'!AK4</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="34" t="str">
@@ -11342,7 +11335,7 @@
       </c>
       <c r="G11" s="30">
         <f>SUM(G3:G10)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>

--- a/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Finaceiro 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Documents\Importantes\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF72FF0-E049-4D78-9BC5-3C4402F93586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07BC88-D8E8-4DD4-9BE2-2509D5B6A3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Resultado '!$G$2:$L$2</definedName>
     <definedName name="Ativos">'Saldo &amp; Mov.'!$B$3:$B$5</definedName>
     <definedName name="Categorias">'Despesas - Mapa'!$C$7:$C$15</definedName>
+    <definedName name="Dash" localSheetId="5">Gráficos!$A$1:$T$27</definedName>
     <definedName name="Despesas">'Despesas - Mapa'!$C$7:$C$15</definedName>
     <definedName name="Investimentos">'Receitas - Mapa'!$A$15:$A$16</definedName>
     <definedName name="Perdas">'Receitas - Mapa'!$A$9:$A$11</definedName>
@@ -74,12 +75,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Mês</t>
-  </si>
-  <si>
-    <t>Abril</t>
   </si>
   <si>
     <t>Despesas</t>
@@ -88,40 +86,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Setembro</t>
-  </si>
-  <si>
-    <t>Outubro</t>
-  </si>
-  <si>
-    <t>Novembro</t>
-  </si>
-  <si>
-    <t>Dezembro</t>
-  </si>
-  <si>
     <t>Investimentos</t>
-  </si>
-  <si>
-    <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>Março</t>
   </si>
   <si>
     <t>Saldo</t>
@@ -658,7 +623,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -838,9 +803,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +894,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4576,8 +4544,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>225517</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>107929</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>217282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4607,15 +4575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>226339</xdr:colOff>
+      <xdr:colOff>233268</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>353586</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>869133</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>130102</xdr:rowOff>
+      <xdr:rowOff>126501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4645,15 +4613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>226337</xdr:colOff>
+      <xdr:colOff>233087</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>135803</xdr:rowOff>
+      <xdr:rowOff>129817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>353584</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>867756</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>84833</xdr:rowOff>
+      <xdr:rowOff>2819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4991,3469 +4959,3468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0180935C-8656-4D81-89AE-9797F0D184CE}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:I541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="107" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="110" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="109" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="107" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="107" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="108" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="111" customWidth="1"/>
-    <col min="9" max="9" width="6" style="107" customWidth="1"/>
-    <col min="10" max="10" width="10" style="107" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="107"/>
+    <col min="1" max="1" width="6" style="106" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="109" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="108" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="106" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="106" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="107" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="110" customWidth="1"/>
+    <col min="9" max="9" width="6" style="106" customWidth="1"/>
+    <col min="10" max="10" width="10" style="106" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="106"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="str">
+      <c r="B2" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="108"/>
-      <c r="H2" s="107"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="107"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
-        <v>49</v>
+      <c r="B3" s="81" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="20" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B3,Tabela1[Valor])</f>
+        <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B3,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B3,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
         <v>150</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="81">
+      <c r="D3" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="80">
+        <f ca="1">VLOOKUP(D2,Resumo!A3:I14,8,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="106"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="20" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B4,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="80">
+        <f>Resumo!I15</f>
+        <v>150</v>
+      </c>
+      <c r="F4" s="107"/>
+      <c r="H4" s="106"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="20" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B5,Tabela1[Data],"&lt;="&amp;(TODAY()))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="80">
         <f ca="1">VLOOKUP(D2,Resumo!A3:I14,9,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="H3" s="107"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B4,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B4,Tabela1[Valor])</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="81">
-        <f ca="1">ROUND(C6-E3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="108"/>
-      <c r="H4" s="107"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="20" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Alocação],B5,Tabela1[Data],"&lt;="&amp;(TODAY())) - SUMIF(Tabela1[Categoria],B5,Tabela1[Valor])</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="81">
-        <f ca="1">VLOOKUP(D2,Resumo!A3:I14,8,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="108"/>
-      <c r="H5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82" t="s">
-        <v>70</v>
+      <c r="B6" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="20">
         <f ca="1">SUM(C3:C5)</f>
         <v>150</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="81">
-        <f>Resumo!I15</f>
-        <v>150</v>
-      </c>
-      <c r="F6" s="108"/>
-      <c r="H6" s="107"/>
+      <c r="D6" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="80">
+        <f ca="1">ROUND(C6-E5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="B7" s="106"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93">
         <f>SUBTOTAL(2,Tabela1[Data])</f>
         <v>12</v>
       </c>
-      <c r="F8" s="91" t="s">
-        <v>59</v>
+      <c r="F8" s="90" t="s">
+        <v>47</v>
       </c>
       <c r="G8" s="20">
         <f>SUBTOTAL(9,Tabela1[Valor])</f>
         <v>150</v>
       </c>
-      <c r="H8" s="107"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>27</v>
+      <c r="B9" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="102">
+      <c r="B10" s="101">
         <v>44927</v>
       </c>
-      <c r="C10" s="103" t="str">
+      <c r="C10" s="102" t="str">
         <f t="shared" ref="C10:C23" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
         <v>Janeiro</v>
       </c>
-      <c r="D10" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="105">
+      <c r="D10" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="104">
         <v>150</v>
       </c>
-      <c r="H10" s="106"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="102">
+      <c r="B11" s="101">
         <v>44958</v>
       </c>
-      <c r="C11" s="103" t="str">
+      <c r="C11" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Fevereiro</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="102">
+      <c r="B12" s="101">
         <v>44986</v>
       </c>
-      <c r="C12" s="103" t="str">
+      <c r="C12" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Março</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="102">
+      <c r="B13" s="101">
         <v>45017</v>
       </c>
-      <c r="C13" s="103" t="str">
+      <c r="C13" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Abril</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="102">
+      <c r="B14" s="101">
         <v>45047</v>
       </c>
-      <c r="C14" s="103" t="str">
+      <c r="C14" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Maio</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="102">
+      <c r="B15" s="101">
         <v>45078</v>
       </c>
-      <c r="C15" s="103" t="str">
+      <c r="C15" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Junho</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="102">
+      <c r="B16" s="101">
         <v>45108</v>
       </c>
-      <c r="C16" s="103" t="str">
+      <c r="C16" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Julho</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="102">
+      <c r="B17" s="101">
         <v>45139</v>
       </c>
-      <c r="C17" s="103" t="str">
+      <c r="C17" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Agosto</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="102">
+      <c r="B18" s="101">
         <v>45170</v>
       </c>
-      <c r="C18" s="103" t="str">
+      <c r="C18" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Setembro</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="102">
+      <c r="B19" s="101">
         <v>45200</v>
       </c>
-      <c r="C19" s="103" t="str">
+      <c r="C19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Outubro</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="102">
+      <c r="B20" s="101">
         <v>45231</v>
       </c>
-      <c r="C20" s="103" t="str">
+      <c r="C20" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Novembro</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="102">
+      <c r="B21" s="101">
         <v>45261</v>
       </c>
-      <c r="C21" s="103" t="str">
+      <c r="C21" s="102" t="str">
         <f t="shared" si="0"/>
         <v>Dezembro</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="109" t="str">
+      <c r="C23" s="108" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="109" t="str">
+      <c r="C24" s="108" t="str">
         <f t="shared" ref="C24:C38" si="1">IF(ISBLANK(B24),"",PROPER(TEXT(B24,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="109" t="str">
+      <c r="C25" s="108" t="str">
         <f t="shared" ref="C25:C35" si="2">IF(ISBLANK(B25),"",PROPER(TEXT(B25,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="109" t="str">
+      <c r="C26" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="109" t="str">
+      <c r="C27" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="109" t="str">
+      <c r="C28" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="109" t="str">
+      <c r="C29" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="109" t="str">
+      <c r="C30" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="109" t="str">
+      <c r="C31" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="107" t="s">
-        <v>54</v>
+      <c r="I31" s="106" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="109" t="str">
+      <c r="C32" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="109" t="str">
+      <c r="C33" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="109" t="str">
+      <c r="C34" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="109" t="str">
+      <c r="C35" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="109" t="str">
+      <c r="C36" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="109" t="str">
+      <c r="C37" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="109" t="str">
+      <c r="C38" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G38" s="112"/>
-      <c r="H38" s="113"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="112"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="112"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="112"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="107"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="G43" s="107"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="G43" s="106"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="G44" s="107"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="G44" s="106"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="G45" s="107"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="G45" s="106"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="G46" s="107"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="G46" s="106"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="G47" s="107"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="G47" s="106"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="G48" s="107"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="G48" s="106"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="G49" s="107"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="G49" s="106"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="109" t="str">
+      <c r="C50" s="108" t="str">
         <f t="shared" ref="C50:C108" si="3">IF(ISBLANK(B50),"",PROPER(TEXT(B50,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="109" t="str">
+      <c r="C51" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="109" t="str">
+      <c r="C52" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="109" t="str">
+      <c r="C53" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="109" t="str">
+      <c r="C54" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="109" t="str">
+      <c r="C55" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="109" t="str">
+      <c r="C56" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="109" t="str">
+      <c r="C57" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="109" t="str">
+      <c r="C58" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="109" t="str">
+      <c r="C59" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="109" t="str">
+      <c r="C60" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C61" s="109" t="str">
+      <c r="C61" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C62" s="109" t="str">
+      <c r="C62" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C63" s="109" t="str">
+      <c r="C63" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C64" s="109" t="str">
+      <c r="C64" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="109" t="str">
+      <c r="C65" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="109" t="str">
+      <c r="C66" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="109" t="str">
+      <c r="C67" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="109" t="str">
+      <c r="C68" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="109" t="str">
+      <c r="C69" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="109" t="str">
+      <c r="C70" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="109" t="str">
+      <c r="C71" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="109" t="str">
+      <c r="C72" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="109" t="str">
+      <c r="C73" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="109" t="str">
+      <c r="C74" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="109" t="str">
+      <c r="C75" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="109" t="str">
+      <c r="C76" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="109" t="str">
+      <c r="C77" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="109" t="str">
+      <c r="C78" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="109" t="str">
+      <c r="C79" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="109" t="str">
+      <c r="C80" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="109" t="str">
+      <c r="C81" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="109" t="str">
+      <c r="C82" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="109" t="str">
+      <c r="C83" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="109" t="str">
+      <c r="C84" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="109" t="str">
+      <c r="C85" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="109" t="str">
+      <c r="C86" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="109" t="str">
+      <c r="C87" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="109" t="str">
+      <c r="C88" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="109" t="str">
+      <c r="C89" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="109" t="str">
+      <c r="C90" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="109" t="str">
+      <c r="C91" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="109" t="str">
+      <c r="C92" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="109" t="str">
+      <c r="C93" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="109" t="str">
+      <c r="C94" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="109" t="str">
+      <c r="C95" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="109" t="str">
+      <c r="C96" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="109" t="str">
+      <c r="C97" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="109" t="str">
+      <c r="C98" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="109" t="str">
+      <c r="C99" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="109" t="str">
+      <c r="C100" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="109" t="str">
+      <c r="C101" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="109" t="str">
+      <c r="C102" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="109" t="str">
+      <c r="C103" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="109" t="str">
+      <c r="C104" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="109" t="str">
+      <c r="C105" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="109" t="str">
+      <c r="C106" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="109" t="str">
+      <c r="C107" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="109" t="str">
+      <c r="C108" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="109" t="str">
+      <c r="C109" s="108" t="str">
         <f t="shared" ref="C109:C172" si="4">IF(ISBLANK(B109),"",PROPER(TEXT(B109,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="109" t="str">
+      <c r="C110" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="109" t="str">
+      <c r="C111" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="109" t="str">
+      <c r="C112" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="109" t="str">
+      <c r="C113" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="109" t="str">
+      <c r="C114" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="109" t="str">
+      <c r="C115" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="109" t="str">
+      <c r="C116" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="109" t="str">
+      <c r="C117" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="109" t="str">
+      <c r="C118" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="109" t="str">
+      <c r="C119" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="109" t="str">
+      <c r="C120" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="109" t="str">
+      <c r="C121" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="109" t="str">
+      <c r="C122" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="109" t="str">
+      <c r="C123" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="109" t="str">
+      <c r="C124" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="109" t="str">
+      <c r="C125" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="109" t="str">
+      <c r="C126" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="109" t="str">
+      <c r="C127" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="109" t="str">
+      <c r="C128" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="109" t="str">
+      <c r="C129" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="109" t="str">
+      <c r="C130" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="109" t="str">
+      <c r="C131" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="109" t="str">
+      <c r="C132" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="109" t="str">
+      <c r="C133" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="109" t="str">
+      <c r="C134" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="109" t="str">
+      <c r="C135" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="109" t="str">
+      <c r="C136" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="109" t="str">
+      <c r="C137" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="109" t="str">
+      <c r="C138" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="109" t="str">
+      <c r="C139" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="109" t="str">
+      <c r="C140" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="109" t="str">
+      <c r="C141" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="109" t="str">
+      <c r="C142" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="109" t="str">
+      <c r="C143" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="109" t="str">
+      <c r="C144" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="109" t="str">
+      <c r="C145" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="109" t="str">
+      <c r="C146" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="109" t="str">
+      <c r="C147" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="109" t="str">
+      <c r="C148" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="109" t="str">
+      <c r="C149" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="109" t="str">
+      <c r="C150" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="109" t="str">
+      <c r="C151" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="109" t="str">
+      <c r="C152" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="109" t="str">
+      <c r="C153" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="109" t="str">
+      <c r="C154" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="109" t="str">
+      <c r="C155" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="109" t="str">
+      <c r="C156" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="109" t="str">
+      <c r="C157" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="109" t="str">
+      <c r="C158" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="109" t="str">
+      <c r="C159" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="109" t="str">
+      <c r="C160" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="109" t="str">
+      <c r="C161" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="109" t="str">
+      <c r="C162" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="109" t="str">
+      <c r="C163" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="109" t="str">
+      <c r="C164" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="109" t="str">
+      <c r="C165" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="109" t="str">
+      <c r="C166" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="109" t="str">
+      <c r="C167" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="109" t="str">
+      <c r="C168" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="109" t="str">
+      <c r="C169" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="109" t="str">
+      <c r="C170" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="109" t="str">
+      <c r="C171" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="109" t="str">
+      <c r="C172" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="109" t="str">
+      <c r="C173" s="108" t="str">
         <f t="shared" ref="C173:C236" si="5">IF(ISBLANK(B173),"",PROPER(TEXT(B173,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="109" t="str">
+      <c r="C174" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="109" t="str">
+      <c r="C175" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="109" t="str">
+      <c r="C176" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="109" t="str">
+      <c r="C177" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="109" t="str">
+      <c r="C178" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="109" t="str">
+      <c r="C179" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="109" t="str">
+      <c r="C180" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="109" t="str">
+      <c r="C181" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="109" t="str">
+      <c r="C182" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="109" t="str">
+      <c r="C183" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="109" t="str">
+      <c r="C184" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="109" t="str">
+      <c r="C185" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="109" t="str">
+      <c r="C186" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="109" t="str">
+      <c r="C187" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="109" t="str">
+      <c r="C188" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="109" t="str">
+      <c r="C189" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="109" t="str">
+      <c r="C190" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="109" t="str">
+      <c r="C191" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="109" t="str">
+      <c r="C192" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="109" t="str">
+      <c r="C193" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="109" t="str">
+      <c r="C194" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="109" t="str">
+      <c r="C195" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="109" t="str">
+      <c r="C196" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="109" t="str">
+      <c r="C197" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="109" t="str">
+      <c r="C198" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="109" t="str">
+      <c r="C199" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="109" t="str">
+      <c r="C200" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="109" t="str">
+      <c r="C201" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="109" t="str">
+      <c r="C202" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="109" t="str">
+      <c r="C203" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="109" t="str">
+      <c r="C204" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="109" t="str">
+      <c r="C205" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="109" t="str">
+      <c r="C206" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="109" t="str">
+      <c r="C207" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="109" t="str">
+      <c r="C208" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="109" t="str">
+      <c r="C209" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="109" t="str">
+      <c r="C210" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="109" t="str">
+      <c r="C211" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="109" t="str">
+      <c r="C212" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="109" t="str">
+      <c r="C213" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="109" t="str">
+      <c r="C214" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="109" t="str">
+      <c r="C215" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="109" t="str">
+      <c r="C216" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="109" t="str">
+      <c r="C217" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="109" t="str">
+      <c r="C218" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="109" t="str">
+      <c r="C219" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="109" t="str">
+      <c r="C220" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="109" t="str">
+      <c r="C221" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="109" t="str">
+      <c r="C222" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="109" t="str">
+      <c r="C223" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="109" t="str">
+      <c r="C224" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="109" t="str">
+      <c r="C225" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="109" t="str">
+      <c r="C226" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="109" t="str">
+      <c r="C227" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="109" t="str">
+      <c r="C228" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="109" t="str">
+      <c r="C229" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="109" t="str">
+      <c r="C230" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="109" t="str">
+      <c r="C231" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="109" t="str">
+      <c r="C232" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="109" t="str">
+      <c r="C233" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="109" t="str">
+      <c r="C234" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="109" t="str">
+      <c r="C235" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="109" t="str">
+      <c r="C236" s="108" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="109" t="str">
+      <c r="C237" s="108" t="str">
         <f t="shared" ref="C237:C300" si="6">IF(ISBLANK(B237),"",PROPER(TEXT(B237,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="109" t="str">
+      <c r="C238" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="109" t="str">
+      <c r="C239" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="109" t="str">
+      <c r="C240" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C241" s="109" t="str">
+      <c r="C241" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="109" t="str">
+      <c r="C242" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C243" s="109" t="str">
+      <c r="C243" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="109" t="str">
+      <c r="C244" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="109" t="str">
+      <c r="C245" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="109" t="str">
+      <c r="C246" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C247" s="109" t="str">
+      <c r="C247" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="109" t="str">
+      <c r="C248" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C249" s="109" t="str">
+      <c r="C249" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="109" t="str">
+      <c r="C250" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="109" t="str">
+      <c r="C251" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="109" t="str">
+      <c r="C252" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="109" t="str">
+      <c r="C253" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="109" t="str">
+      <c r="C254" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C255" s="109" t="str">
+      <c r="C255" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="109" t="str">
+      <c r="C256" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C257" s="109" t="str">
+      <c r="C257" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="109" t="str">
+      <c r="C258" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="109" t="str">
+      <c r="C259" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C260" s="109" t="str">
+      <c r="C260" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C261" s="109" t="str">
+      <c r="C261" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C262" s="109" t="str">
+      <c r="C262" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="109" t="str">
+      <c r="C263" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C264" s="109" t="str">
+      <c r="C264" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C265" s="109" t="str">
+      <c r="C265" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C266" s="109" t="str">
+      <c r="C266" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C267" s="109" t="str">
+      <c r="C267" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C268" s="109" t="str">
+      <c r="C268" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C269" s="109" t="str">
+      <c r="C269" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C270" s="109" t="str">
+      <c r="C270" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="109" t="str">
+      <c r="C271" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C272" s="109" t="str">
+      <c r="C272" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="109" t="str">
+      <c r="C273" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C274" s="109" t="str">
+      <c r="C274" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C275" s="109" t="str">
+      <c r="C275" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="109" t="str">
+      <c r="C276" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C277" s="109" t="str">
+      <c r="C277" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C278" s="109" t="str">
+      <c r="C278" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C279" s="109" t="str">
+      <c r="C279" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C280" s="109" t="str">
+      <c r="C280" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="109" t="str">
+      <c r="C281" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C282" s="109" t="str">
+      <c r="C282" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C283" s="109" t="str">
+      <c r="C283" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C284" s="109" t="str">
+      <c r="C284" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C285" s="109" t="str">
+      <c r="C285" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="109" t="str">
+      <c r="C286" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C287" s="109" t="str">
+      <c r="C287" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C288" s="109" t="str">
+      <c r="C288" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="109" t="str">
+      <c r="C289" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C290" s="109" t="str">
+      <c r="C290" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" s="109" t="str">
+      <c r="C291" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" s="109" t="str">
+      <c r="C292" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" s="109" t="str">
+      <c r="C293" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C294" s="109" t="str">
+      <c r="C294" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="109" t="str">
+      <c r="C295" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" s="109" t="str">
+      <c r="C296" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" s="109" t="str">
+      <c r="C297" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C298" s="109" t="str">
+      <c r="C298" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" s="109" t="str">
+      <c r="C299" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" s="109" t="str">
+      <c r="C300" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C301" s="109" t="str">
+      <c r="C301" s="108" t="str">
         <f t="shared" ref="C301:C364" si="7">IF(ISBLANK(B301),"",PROPER(TEXT(B301,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="109" t="str">
+      <c r="C302" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C303" s="109" t="str">
+      <c r="C303" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C304" s="109" t="str">
+      <c r="C304" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C305" s="109" t="str">
+      <c r="C305" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="109" t="str">
+      <c r="C306" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C307" s="109" t="str">
+      <c r="C307" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C308" s="109" t="str">
+      <c r="C308" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C309" s="109" t="str">
+      <c r="C309" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" s="109" t="str">
+      <c r="C310" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C311" s="109" t="str">
+      <c r="C311" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C312" s="109" t="str">
+      <c r="C312" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="109" t="str">
+      <c r="C313" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" s="109" t="str">
+      <c r="C314" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C315" s="109" t="str">
+      <c r="C315" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C316" s="109" t="str">
+      <c r="C316" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C317" s="109" t="str">
+      <c r="C317" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C318" s="109" t="str">
+      <c r="C318" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C319" s="109" t="str">
+      <c r="C319" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C320" s="109" t="str">
+      <c r="C320" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C321" s="109" t="str">
+      <c r="C321" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C322" s="109" t="str">
+      <c r="C322" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C323" s="109" t="str">
+      <c r="C323" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C324" s="109" t="str">
+      <c r="C324" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C325" s="109" t="str">
+      <c r="C325" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="109" t="str">
+      <c r="C326" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C327" s="109" t="str">
+      <c r="C327" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C328" s="109" t="str">
+      <c r="C328" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C329" s="109" t="str">
+      <c r="C329" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="109" t="str">
+      <c r="C330" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C331" s="109" t="str">
+      <c r="C331" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C332" s="109" t="str">
+      <c r="C332" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C333" s="109" t="str">
+      <c r="C333" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C334" s="109" t="str">
+      <c r="C334" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C335" s="109" t="str">
+      <c r="C335" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C336" s="109" t="str">
+      <c r="C336" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C337" s="109" t="str">
+      <c r="C337" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="109" t="str">
+      <c r="C338" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="109" t="str">
+      <c r="C339" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C340" s="109" t="str">
+      <c r="C340" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C341" s="109" t="str">
+      <c r="C341" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C342" s="109" t="str">
+      <c r="C342" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C343" s="109" t="str">
+      <c r="C343" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C344" s="109" t="str">
+      <c r="C344" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C345" s="109" t="str">
+      <c r="C345" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C346" s="109" t="str">
+      <c r="C346" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C347" s="109" t="str">
+      <c r="C347" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C348" s="109" t="str">
+      <c r="C348" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C349" s="109" t="str">
+      <c r="C349" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C350" s="109" t="str">
+      <c r="C350" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C351" s="109" t="str">
+      <c r="C351" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C352" s="109" t="str">
+      <c r="C352" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C353" s="109" t="str">
+      <c r="C353" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C354" s="109" t="str">
+      <c r="C354" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C355" s="109" t="str">
+      <c r="C355" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C356" s="109" t="str">
+      <c r="C356" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C357" s="109" t="str">
+      <c r="C357" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C358" s="109" t="str">
+      <c r="C358" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C359" s="109" t="str">
+      <c r="C359" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C360" s="109" t="str">
+      <c r="C360" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="109" t="str">
+      <c r="C361" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C362" s="109" t="str">
+      <c r="C362" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C363" s="109" t="str">
+      <c r="C363" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C364" s="109" t="str">
+      <c r="C364" s="108" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C365" s="109" t="str">
+      <c r="C365" s="108" t="str">
         <f t="shared" ref="C365:C428" si="8">IF(ISBLANK(B365),"",PROPER(TEXT(B365,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C366" s="109" t="str">
+      <c r="C366" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C367" s="109" t="str">
+      <c r="C367" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C368" s="109" t="str">
+      <c r="C368" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C369" s="109" t="str">
+      <c r="C369" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C370" s="109" t="str">
+      <c r="C370" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="109" t="str">
+      <c r="C371" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C372" s="109" t="str">
+      <c r="C372" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C373" s="109" t="str">
+      <c r="C373" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C374" s="109" t="str">
+      <c r="C374" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C375" s="109" t="str">
+      <c r="C375" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C376" s="109" t="str">
+      <c r="C376" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C377" s="109" t="str">
+      <c r="C377" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C378" s="109" t="str">
+      <c r="C378" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C379" s="109" t="str">
+      <c r="C379" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C380" s="109" t="str">
+      <c r="C380" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C381" s="109" t="str">
+      <c r="C381" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C382" s="109" t="str">
+      <c r="C382" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C383" s="109" t="str">
+      <c r="C383" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C384" s="109" t="str">
+      <c r="C384" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C385" s="109" t="str">
+      <c r="C385" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C386" s="109" t="str">
+      <c r="C386" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C387" s="109" t="str">
+      <c r="C387" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C388" s="109" t="str">
+      <c r="C388" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C389" s="109" t="str">
+      <c r="C389" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C390" s="109" t="str">
+      <c r="C390" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C391" s="109" t="str">
+      <c r="C391" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C392" s="109" t="str">
+      <c r="C392" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C393" s="109" t="str">
+      <c r="C393" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C394" s="109" t="str">
+      <c r="C394" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C395" s="109" t="str">
+      <c r="C395" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C396" s="109" t="str">
+      <c r="C396" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C397" s="109" t="str">
+      <c r="C397" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C398" s="109" t="str">
+      <c r="C398" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C399" s="109" t="str">
+      <c r="C399" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C400" s="109" t="str">
+      <c r="C400" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C401" s="109" t="str">
+      <c r="C401" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C402" s="109" t="str">
+      <c r="C402" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C403" s="109" t="str">
+      <c r="C403" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C404" s="109" t="str">
+      <c r="C404" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C405" s="109" t="str">
+      <c r="C405" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C406" s="109" t="str">
+      <c r="C406" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C407" s="109" t="str">
+      <c r="C407" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C408" s="109" t="str">
+      <c r="C408" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C409" s="109" t="str">
+      <c r="C409" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C410" s="109" t="str">
+      <c r="C410" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C411" s="109" t="str">
+      <c r="C411" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C412" s="109" t="str">
+      <c r="C412" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C413" s="109" t="str">
+      <c r="C413" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C414" s="109" t="str">
+      <c r="C414" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C415" s="109" t="str">
+      <c r="C415" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="109" t="str">
+      <c r="C416" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="109" t="str">
+      <c r="C417" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="109" t="str">
+      <c r="C418" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="109" t="str">
+      <c r="C419" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C420" s="109" t="str">
+      <c r="C420" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421" s="109" t="str">
+      <c r="C421" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C422" s="109" t="str">
+      <c r="C422" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423" s="109" t="str">
+      <c r="C423" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C424" s="109" t="str">
+      <c r="C424" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425" s="109" t="str">
+      <c r="C425" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C426" s="109" t="str">
+      <c r="C426" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427" s="109" t="str">
+      <c r="C427" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C428" s="109" t="str">
+      <c r="C428" s="108" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="109" t="str">
+      <c r="C429" s="108" t="str">
         <f t="shared" ref="C429:C492" si="9">IF(ISBLANK(B429),"",PROPER(TEXT(B429,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C430" s="109" t="str">
+      <c r="C430" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431" s="109" t="str">
+      <c r="C431" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C432" s="109" t="str">
+      <c r="C432" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C433" s="109" t="str">
+      <c r="C433" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C434" s="109" t="str">
+      <c r="C434" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435" s="109" t="str">
+      <c r="C435" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C436" s="109" t="str">
+      <c r="C436" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437" s="109" t="str">
+      <c r="C437" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C438" s="109" t="str">
+      <c r="C438" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439" s="109" t="str">
+      <c r="C439" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C440" s="109" t="str">
+      <c r="C440" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441" s="109" t="str">
+      <c r="C441" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442" s="109" t="str">
+      <c r="C442" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" s="109" t="str">
+      <c r="C443" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444" s="109" t="str">
+      <c r="C444" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445" s="109" t="str">
+      <c r="C445" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446" s="109" t="str">
+      <c r="C446" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" s="109" t="str">
+      <c r="C447" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448" s="109" t="str">
+      <c r="C448" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" s="109" t="str">
+      <c r="C449" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C450" s="109" t="str">
+      <c r="C450" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451" s="109" t="str">
+      <c r="C451" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452" s="109" t="str">
+      <c r="C452" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453" s="109" t="str">
+      <c r="C453" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454" s="109" t="str">
+      <c r="C454" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455" s="109" t="str">
+      <c r="C455" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456" s="109" t="str">
+      <c r="C456" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457" s="109" t="str">
+      <c r="C457" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458" s="109" t="str">
+      <c r="C458" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459" s="109" t="str">
+      <c r="C459" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C460" s="109" t="str">
+      <c r="C460" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461" s="109" t="str">
+      <c r="C461" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462" s="109" t="str">
+      <c r="C462" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463" s="109" t="str">
+      <c r="C463" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464" s="109" t="str">
+      <c r="C464" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465" s="109" t="str">
+      <c r="C465" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466" s="109" t="str">
+      <c r="C466" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467" s="109" t="str">
+      <c r="C467" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468" s="109" t="str">
+      <c r="C468" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469" s="109" t="str">
+      <c r="C469" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470" s="109" t="str">
+      <c r="C470" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471" s="109" t="str">
+      <c r="C471" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472" s="109" t="str">
+      <c r="C472" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C473" s="109" t="str">
+      <c r="C473" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C474" s="109" t="str">
+      <c r="C474" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C475" s="109" t="str">
+      <c r="C475" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C476" s="109" t="str">
+      <c r="C476" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C477" s="109" t="str">
+      <c r="C477" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C478" s="109" t="str">
+      <c r="C478" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C479" s="109" t="str">
+      <c r="C479" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C480" s="109" t="str">
+      <c r="C480" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C481" s="109" t="str">
+      <c r="C481" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C482" s="109" t="str">
+      <c r="C482" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C483" s="109" t="str">
+      <c r="C483" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C484" s="109" t="str">
+      <c r="C484" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C485" s="109" t="str">
+      <c r="C485" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C486" s="109" t="str">
+      <c r="C486" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C487" s="109" t="str">
+      <c r="C487" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C488" s="109" t="str">
+      <c r="C488" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C489" s="109" t="str">
+      <c r="C489" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C490" s="109" t="str">
+      <c r="C490" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C491" s="109" t="str">
+      <c r="C491" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C492" s="109" t="str">
+      <c r="C492" s="108" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C493" s="109" t="str">
+      <c r="C493" s="108" t="str">
         <f t="shared" ref="C493:C541" si="10">IF(ISBLANK(B493),"",PROPER(TEXT(B493,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C494" s="109" t="str">
+      <c r="C494" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C495" s="109" t="str">
+      <c r="C495" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C496" s="109" t="str">
+      <c r="C496" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C497" s="109" t="str">
+      <c r="C497" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C498" s="109" t="str">
+      <c r="C498" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C499" s="109" t="str">
+      <c r="C499" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C500" s="109" t="str">
+      <c r="C500" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C501" s="109" t="str">
+      <c r="C501" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C502" s="109" t="str">
+      <c r="C502" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C503" s="109" t="str">
+      <c r="C503" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C504" s="109" t="str">
+      <c r="C504" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C505" s="109" t="str">
+      <c r="C505" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C506" s="109" t="str">
+      <c r="C506" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C507" s="109" t="str">
+      <c r="C507" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C508" s="109" t="str">
+      <c r="C508" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C509" s="109" t="str">
+      <c r="C509" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C510" s="109" t="str">
+      <c r="C510" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C511" s="109" t="str">
+      <c r="C511" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C512" s="109" t="str">
+      <c r="C512" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C513" s="109" t="str">
+      <c r="C513" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C514" s="109" t="str">
+      <c r="C514" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C515" s="109" t="str">
+      <c r="C515" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C516" s="109" t="str">
+      <c r="C516" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C517" s="109" t="str">
+      <c r="C517" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C518" s="109" t="str">
+      <c r="C518" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C519" s="109" t="str">
+      <c r="C519" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C520" s="109" t="str">
+      <c r="C520" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C521" s="109" t="str">
+      <c r="C521" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C522" s="109" t="str">
+      <c r="C522" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C523" s="109" t="str">
+      <c r="C523" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C524" s="109" t="str">
+      <c r="C524" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C525" s="109" t="str">
+      <c r="C525" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C526" s="109" t="str">
+      <c r="C526" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C527" s="109" t="str">
+      <c r="C527" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C528" s="109" t="str">
+      <c r="C528" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C529" s="109" t="str">
+      <c r="C529" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C530" s="109" t="str">
+      <c r="C530" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C531" s="109" t="str">
+      <c r="C531" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C532" s="109" t="str">
+      <c r="C532" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C533" s="109" t="str">
+      <c r="C533" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C534" s="109" t="str">
+      <c r="C534" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C535" s="109" t="str">
+      <c r="C535" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C536" s="109" t="str">
+      <c r="C536" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C537" s="109" t="str">
+      <c r="C537" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C538" s="109" t="str">
+      <c r="C538" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C539" s="109" t="str">
+      <c r="C539" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C540" s="109" t="str">
+      <c r="C540" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C541" s="109" t="str">
+      <c r="C541" s="108" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -8463,7 +8430,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -8471,7 +8438,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E22" xr:uid="{E4F2BDDC-1223-4DFF-8087-7B85DF038B73}">
       <formula1>INDIRECT(D10)</formula1>
     </dataValidation>
@@ -8492,7 +8459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:M18"/>
@@ -8512,51 +8479,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>11</v>
+      <c r="B2" s="31" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
+      </c>
+      <c r="C2" s="31" t="str">
+        <f>PROPER(TEXT("01/02","MMMM"))</f>
+        <v>Fevereiro</v>
+      </c>
+      <c r="D2" s="31" t="str">
+        <f>PROPER(TEXT("01/03","MMMM"))</f>
+        <v>Março</v>
+      </c>
+      <c r="E2" s="31" t="str">
+        <f>PROPER(TEXT("01/04","MMMM"))</f>
+        <v>Abril</v>
+      </c>
+      <c r="F2" s="31" t="str">
+        <f>PROPER(TEXT("01/05","MMMM"))</f>
+        <v>Maio</v>
+      </c>
+      <c r="G2" s="31" t="str">
+        <f>PROPER(TEXT("01/06","MMMM"))</f>
+        <v>Junho</v>
+      </c>
+      <c r="H2" s="31" t="str">
+        <f>PROPER(TEXT("01/07","MMMM"))</f>
+        <v>Julho</v>
+      </c>
+      <c r="I2" s="31" t="str">
+        <f>PROPER(TEXT("01/08","MMMM"))</f>
+        <v>Agosto</v>
+      </c>
+      <c r="J2" s="31" t="str">
+        <f>PROPER(TEXT("01/09","MMMM"))</f>
+        <v>Setembro</v>
+      </c>
+      <c r="K2" s="31" t="str">
+        <f>PROPER(TEXT("01/10","MMMM"))</f>
+        <v>Outubro</v>
+      </c>
+      <c r="L2" s="31" t="str">
+        <f>PROPER(TEXT("01/11","MMMM"))</f>
+        <v>Novembro</v>
+      </c>
+      <c r="M2" s="31" t="str">
+        <f>PROPER(TEXT("01/12","MMMM"))</f>
+        <v>Dezembro</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>60</v>
+      <c r="A3" s="89" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B4" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A4)</f>
@@ -8609,7 +8588,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B5" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A5)</f>
@@ -8662,7 +8641,7 @@
     </row>
     <row r="6" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A6)</f>
@@ -8729,8 +8708,8 @@
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
-        <v>61</v>
+      <c r="A8" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -8747,7 +8726,7 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B9" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A9)</f>
@@ -8800,7 +8779,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B10" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A10)</f>
@@ -8853,7 +8832,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.850000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A11)</f>
@@ -8906,53 +8885,53 @@
     </row>
     <row r="12" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="101">
+        <v>57</v>
+      </c>
+      <c r="B12" s="100">
         <f>IF((SUM(B4:B6)-SUM(B9:B10)) &gt; 10, ((SUM(B4:B6)-SUM(B9:B10))*0.1), (0))-B11</f>
         <v>15</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="100">
         <f t="shared" ref="C12:M12" si="0">IF((SUM(C4:C6)-SUM(C9:C10)) &gt; 10, ((SUM(C4:C6)-SUM(C9:C10))*0.1), (0))-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="101">
+      <c r="J12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8973,8 +8952,8 @@
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90" t="s">
-        <v>12</v>
+      <c r="A14" s="89" t="s">
+        <v>3</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -8991,7 +8970,7 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B15" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A15)</f>
@@ -9044,7 +9023,7 @@
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B16" s="20">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],B$2,Tabela1[Categoria],$A16)</f>
@@ -9111,8 +9090,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
-        <v>20</v>
+      <c r="A18" s="88" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="20">
         <f t="shared" ref="B18:M18" si="1">ROUND(SUM(B4:B6)-SUM(B15:B16)-SUM(B9:B11),2)</f>
@@ -9172,7 +9151,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha3">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:AK17"/>
@@ -9217,74 +9196,86 @@
     <col min="42" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="78"/>
-      <c r="D2" s="79" t="s">
-        <v>13</v>
+      <c r="D2" s="114" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
-      <c r="G2" s="87" t="s">
-        <v>14</v>
+      <c r="G2" s="86" t="str">
+        <f>PROPER(TEXT("1/02","MMMM"))</f>
+        <v>Fevereiro</v>
       </c>
       <c r="H2" s="77"/>
       <c r="I2" s="77"/>
-      <c r="J2" s="79" t="s">
-        <v>15</v>
+      <c r="J2" s="115" t="str">
+        <f>PROPER(TEXT("1/03","MMMM"))</f>
+        <v>Março</v>
       </c>
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
-      <c r="M2" s="76" t="s">
-        <v>1</v>
+      <c r="M2" s="86" t="str">
+        <f>PROPER(TEXT("1/04","MMMM"))</f>
+        <v>Abril</v>
       </c>
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
-      <c r="P2" s="79" t="s">
-        <v>4</v>
+      <c r="P2" s="115" t="str">
+        <f>PROPER(TEXT("1/05","MMMM"))</f>
+        <v>Maio</v>
       </c>
       <c r="Q2" s="77"/>
       <c r="R2" s="77"/>
-      <c r="S2" s="76" t="s">
-        <v>5</v>
+      <c r="S2" s="86" t="str">
+        <f>PROPER(TEXT("1/06","MMMM"))</f>
+        <v>Junho</v>
       </c>
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
-      <c r="V2" s="79" t="s">
-        <v>6</v>
+      <c r="V2" s="115" t="str">
+        <f>PROPER(TEXT("1/07","MMMM"))</f>
+        <v>Julho</v>
       </c>
       <c r="W2" s="77"/>
       <c r="X2" s="77"/>
-      <c r="Y2" s="76" t="s">
-        <v>7</v>
+      <c r="Y2" s="86" t="str">
+        <f>PROPER(TEXT("1/08","MMMM"))</f>
+        <v>Agosto</v>
       </c>
       <c r="Z2" s="77"/>
       <c r="AA2" s="77"/>
-      <c r="AB2" s="79" t="s">
-        <v>8</v>
+      <c r="AB2" s="115" t="str">
+        <f>PROPER(TEXT("1/09","MMMM"))</f>
+        <v>Setembro</v>
       </c>
       <c r="AC2" s="77"/>
       <c r="AD2" s="77"/>
-      <c r="AE2" s="76" t="s">
-        <v>9</v>
+      <c r="AE2" s="86" t="str">
+        <f>PROPER(TEXT("1/10","MMMM"))</f>
+        <v>Outubro</v>
       </c>
       <c r="AF2" s="77"/>
       <c r="AG2" s="77"/>
-      <c r="AH2" s="79" t="s">
-        <v>10</v>
+      <c r="AH2" s="115" t="str">
+        <f>PROPER(TEXT("1/11","MMMM"))</f>
+        <v>Novembro</v>
       </c>
       <c r="AI2" s="77"/>
       <c r="AJ2" s="77"/>
-      <c r="AK2" s="76" t="s">
-        <v>11</v>
+      <c r="AK2" s="86" t="str">
+        <f>PROPER(TEXT("1/12","MMMM"))</f>
+        <v>Dezembro</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="62"/>
@@ -9350,7 +9341,7 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="63"/>
       <c r="D4" s="75">
@@ -9454,99 +9445,99 @@
       <c r="AK5" s="63"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
-        <v>19</v>
+      <c r="A6" s="119" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E6" s="63"/>
       <c r="F6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N6" s="63"/>
       <c r="O6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="63"/>
       <c r="R6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="S6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="T6" s="63"/>
       <c r="U6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="W6" s="63"/>
       <c r="X6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="63"/>
       <c r="AA6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AC6" s="63"/>
       <c r="AD6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AF6" s="63"/>
       <c r="AG6" s="70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AI6" s="63"/>
       <c r="AJ6" s="72" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AK6" s="73" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="66"/>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C7)</f>
@@ -9557,7 +9548,7 @@
         <f t="array" ref="F7:F15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F7)</f>
         <v>0</v>
       </c>
@@ -9575,7 +9566,7 @@
         <f t="array" ref="L7:L15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L7)</f>
         <v>0</v>
       </c>
@@ -9593,7 +9584,7 @@
         <f t="array" ref="R7:R15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="S7" s="88">
+      <c r="S7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R7)</f>
         <v>0</v>
       </c>
@@ -9611,7 +9602,7 @@
         <f t="array" ref="X7:X15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="Y7" s="88">
+      <c r="Y7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X7)</f>
         <v>0</v>
       </c>
@@ -9629,7 +9620,7 @@
         <f t="array" ref="AD7:AD15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AE7" s="88">
+      <c r="AE7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD7)</f>
         <v>0</v>
       </c>
@@ -9647,16 +9638,16 @@
         <f t="array" ref="AJ7:AJ15">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="AK7" s="88">
+      <c r="AK7" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C8)</f>
@@ -9666,7 +9657,7 @@
       <c r="F8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F8)</f>
         <v>0</v>
       </c>
@@ -9682,7 +9673,7 @@
       <c r="L8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L8)</f>
         <v>0</v>
       </c>
@@ -9698,7 +9689,7 @@
       <c r="R8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="S8" s="88">
+      <c r="S8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R8)</f>
         <v>0</v>
       </c>
@@ -9714,7 +9705,7 @@
       <c r="X8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="Y8" s="88">
+      <c r="Y8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X8)</f>
         <v>0</v>
       </c>
@@ -9730,7 +9721,7 @@
       <c r="AD8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AE8" s="88">
+      <c r="AE8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD8)</f>
         <v>0</v>
       </c>
@@ -9746,16 +9737,16 @@
       <c r="AJ8" s="8" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="AK8" s="88">
+      <c r="AK8" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="66"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C9)</f>
@@ -9765,7 +9756,7 @@
       <c r="F9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F9)</f>
         <v>0</v>
       </c>
@@ -9781,7 +9772,7 @@
       <c r="L9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L9)</f>
         <v>0</v>
       </c>
@@ -9797,7 +9788,7 @@
       <c r="R9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="S9" s="88">
+      <c r="S9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R9)</f>
         <v>0</v>
       </c>
@@ -9813,7 +9804,7 @@
       <c r="X9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="Y9" s="88">
+      <c r="Y9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X9)</f>
         <v>0</v>
       </c>
@@ -9829,7 +9820,7 @@
       <c r="AD9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AE9" s="88">
+      <c r="AE9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD9)</f>
         <v>0</v>
       </c>
@@ -9845,16 +9836,16 @@
       <c r="AJ9" s="8" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="AK9" s="88">
+      <c r="AK9" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="66"/>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C10)</f>
@@ -9864,7 +9855,7 @@
       <c r="F10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F10)</f>
         <v>0</v>
       </c>
@@ -9880,7 +9871,7 @@
       <c r="L10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L10)</f>
         <v>0</v>
       </c>
@@ -9896,7 +9887,7 @@
       <c r="R10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="S10" s="88">
+      <c r="S10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R10)</f>
         <v>0</v>
       </c>
@@ -9912,7 +9903,7 @@
       <c r="X10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="Y10" s="88">
+      <c r="Y10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X10)</f>
         <v>0</v>
       </c>
@@ -9928,7 +9919,7 @@
       <c r="AD10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AE10" s="88">
+      <c r="AE10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD10)</f>
         <v>0</v>
       </c>
@@ -9944,16 +9935,16 @@
       <c r="AJ10" s="8" t="str">
         <v>Cursos</v>
       </c>
-      <c r="AK10" s="88">
+      <c r="AK10" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="66"/>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C11)</f>
@@ -9963,7 +9954,7 @@
       <c r="F11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F11)</f>
         <v>0</v>
       </c>
@@ -9979,7 +9970,7 @@
       <c r="L11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L11)</f>
         <v>0</v>
       </c>
@@ -9995,7 +9986,7 @@
       <c r="R11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="S11" s="88">
+      <c r="S11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R11)</f>
         <v>0</v>
       </c>
@@ -10011,7 +10002,7 @@
       <c r="X11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="Y11" s="88">
+      <c r="Y11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X11)</f>
         <v>0</v>
       </c>
@@ -10027,7 +10018,7 @@
       <c r="AD11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AE11" s="88">
+      <c r="AE11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD11)</f>
         <v>0</v>
       </c>
@@ -10043,16 +10034,16 @@
       <c r="AJ11" s="8" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="AK11" s="88">
+      <c r="AK11" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="66"/>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C12)</f>
@@ -10062,7 +10053,7 @@
       <c r="F12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F12)</f>
         <v>0</v>
       </c>
@@ -10078,7 +10069,7 @@
       <c r="L12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L12)</f>
         <v>0</v>
       </c>
@@ -10094,7 +10085,7 @@
       <c r="R12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="S12" s="88">
+      <c r="S12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R12)</f>
         <v>0</v>
       </c>
@@ -10110,7 +10101,7 @@
       <c r="X12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="Y12" s="88">
+      <c r="Y12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X12)</f>
         <v>0</v>
       </c>
@@ -10126,7 +10117,7 @@
       <c r="AD12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AE12" s="88">
+      <c r="AE12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD12)</f>
         <v>0</v>
       </c>
@@ -10142,16 +10133,16 @@
       <c r="AJ12" s="8" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="AK12" s="88">
+      <c r="AK12" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="66"/>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C13)</f>
@@ -10161,7 +10152,7 @@
       <c r="F13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F13)</f>
         <v>0</v>
       </c>
@@ -10177,7 +10168,7 @@
       <c r="L13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L13)</f>
         <v>0</v>
       </c>
@@ -10193,7 +10184,7 @@
       <c r="R13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="S13" s="88">
+      <c r="S13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R13)</f>
         <v>0</v>
       </c>
@@ -10209,7 +10200,7 @@
       <c r="X13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="Y13" s="88">
+      <c r="Y13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X13)</f>
         <v>0</v>
       </c>
@@ -10225,7 +10216,7 @@
       <c r="AD13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AE13" s="88">
+      <c r="AE13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD13)</f>
         <v>0</v>
       </c>
@@ -10241,16 +10232,16 @@
       <c r="AJ13" s="8" t="str">
         <v>Rolê</v>
       </c>
-      <c r="AK13" s="88">
+      <c r="AK13" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="66"/>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C14)</f>
@@ -10260,7 +10251,7 @@
       <c r="F14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F14)</f>
         <v>0</v>
       </c>
@@ -10276,7 +10267,7 @@
       <c r="L14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L14)</f>
         <v>0</v>
       </c>
@@ -10292,7 +10283,7 @@
       <c r="R14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="S14" s="88">
+      <c r="S14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R14)</f>
         <v>0</v>
       </c>
@@ -10308,7 +10299,7 @@
       <c r="X14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="Y14" s="88">
+      <c r="Y14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X14)</f>
         <v>0</v>
       </c>
@@ -10324,7 +10315,7 @@
       <c r="AD14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AE14" s="88">
+      <c r="AE14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD14)</f>
         <v>0</v>
       </c>
@@ -10340,16 +10331,16 @@
       <c r="AJ14" s="8" t="str">
         <v>Roupas</v>
       </c>
-      <c r="AK14" s="88">
+      <c r="AK14" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="67"/>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!D$2,Tabela1[Categoria],'Despesas - Mapa'!C15)</f>
@@ -10359,7 +10350,7 @@
       <c r="F15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!G$2,Tabela1[Categoria],'Despesas - Mapa'!F15)</f>
         <v>0</v>
       </c>
@@ -10375,7 +10366,7 @@
       <c r="L15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!M$2,Tabela1[Categoria],'Despesas - Mapa'!L15)</f>
         <v>0</v>
       </c>
@@ -10391,7 +10382,7 @@
       <c r="R15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="S15" s="88">
+      <c r="S15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!S$2,Tabela1[Categoria],'Despesas - Mapa'!R15)</f>
         <v>0</v>
       </c>
@@ -10407,7 +10398,7 @@
       <c r="X15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="Y15" s="88">
+      <c r="Y15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!Y$2,Tabela1[Categoria],'Despesas - Mapa'!X15)</f>
         <v>0</v>
       </c>
@@ -10423,7 +10414,7 @@
       <c r="AD15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AE15" s="88">
+      <c r="AE15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AE$2,Tabela1[Categoria],'Despesas - Mapa'!AD15)</f>
         <v>0</v>
       </c>
@@ -10439,120 +10430,120 @@
       <c r="AJ15" s="8" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="AK15" s="88">
+      <c r="AK15" s="87">
         <f>SUMIFS(Tabela1[Valor],Tabela1[Mês],'Despesas - Mapa'!AK$2,Tabela1[Categoria],'Despesas - Mapa'!AJ15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="67"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
       <c r="N16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="86"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="60"/>
       <c r="V16" s="60"/>
       <c r="W16" s="60"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="86"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="85"/>
       <c r="Z16" s="60"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="86"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="85"/>
       <c r="AF16" s="60"/>
-      <c r="AH16" s="83"/>
+      <c r="AH16" s="82"/>
       <c r="AI16" s="60"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="86"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="85"/>
     </row>
     <row r="17" spans="1:37" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="95" t="s">
-        <v>3</v>
+      <c r="A17" s="94" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="68"/>
-      <c r="C17" s="116">
+      <c r="C17" s="117">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="69"/>
-      <c r="F17" s="117">
+      <c r="F17" s="118">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="117"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="69"/>
-      <c r="I17" s="116">
+      <c r="I17" s="117">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="116"/>
+      <c r="J17" s="117"/>
       <c r="K17" s="69"/>
-      <c r="L17" s="117">
+      <c r="L17" s="118">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="117"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="69"/>
-      <c r="O17" s="116">
+      <c r="O17" s="117">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="116"/>
+      <c r="P17" s="117"/>
       <c r="Q17" s="69"/>
-      <c r="R17" s="117">
+      <c r="R17" s="118">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="117"/>
+      <c r="S17" s="118"/>
       <c r="T17" s="69"/>
-      <c r="U17" s="116">
+      <c r="U17" s="117">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="116"/>
+      <c r="V17" s="117"/>
       <c r="W17" s="69"/>
-      <c r="X17" s="117">
+      <c r="X17" s="118">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="117"/>
+      <c r="Y17" s="118"/>
       <c r="Z17" s="69"/>
-      <c r="AA17" s="116">
+      <c r="AA17" s="117">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="116"/>
+      <c r="AB17" s="117"/>
       <c r="AC17" s="69"/>
-      <c r="AD17" s="117">
+      <c r="AD17" s="118">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="117"/>
+      <c r="AE17" s="118"/>
       <c r="AF17" s="69"/>
-      <c r="AG17" s="116">
+      <c r="AG17" s="117">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="116"/>
+      <c r="AH17" s="117"/>
       <c r="AI17" s="69"/>
-      <c r="AJ17" s="117">
+      <c r="AJ17" s="118">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="117"/>
+      <c r="AK17" s="118"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -10606,7 +10597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha4">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:I18"/>
@@ -10635,26 +10626,27 @@
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="45" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="43" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>13</v>
+      <c r="A3" s="38" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="47">
@@ -10681,8 +10673,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>14</v>
+      <c r="A4" s="38" t="str">
+        <f>PROPER(TEXT("01/02","MMMM"))</f>
+        <v>Fevereiro</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="47">
@@ -10709,8 +10702,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>15</v>
+      <c r="A5" s="38" t="str">
+        <f>PROPER(TEXT("01/03","MMMM"))</f>
+        <v>Março</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="47">
@@ -10737,8 +10731,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>1</v>
+      <c r="A6" s="38" t="str">
+        <f>PROPER(TEXT("01/04","MMMM"))</f>
+        <v>Abril</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="47">
@@ -10765,8 +10760,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>4</v>
+      <c r="A7" s="38" t="str">
+        <f>PROPER(TEXT("01/05","MMMM"))</f>
+        <v>Maio</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="47">
@@ -10793,8 +10789,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>5</v>
+      <c r="A8" s="38" t="str">
+        <f>PROPER(TEXT("01/06","MMMM"))</f>
+        <v>Junho</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="47">
@@ -10821,8 +10818,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>6</v>
+      <c r="A9" s="38" t="str">
+        <f>PROPER(TEXT("01/07","MMMM"))</f>
+        <v>Julho</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="47">
@@ -10849,8 +10847,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>7</v>
+      <c r="A10" s="38" t="str">
+        <f>PROPER(TEXT("01/08","MMMM"))</f>
+        <v>Agosto</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="47">
@@ -10877,8 +10876,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>8</v>
+      <c r="A11" s="38" t="str">
+        <f>PROPER(TEXT("01/09","MMMM"))</f>
+        <v>Setembro</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="47">
@@ -10905,8 +10905,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>9</v>
+      <c r="A12" s="38" t="str">
+        <f>PROPER(TEXT("01/10","MMMM"))</f>
+        <v>Outubro</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="47">
@@ -10933,8 +10934,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>10</v>
+      <c r="A13" s="38" t="str">
+        <f>PROPER(TEXT("01/11","MMMM"))</f>
+        <v>Novembro</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="47">
@@ -10961,8 +10963,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
-        <v>11</v>
+      <c r="A14" s="38" t="str">
+        <f>PROPER(TEXT("01/12","MMMM"))</f>
+        <v>Dezembro</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="47">
@@ -10990,7 +10993,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="49">
@@ -11008,7 +11011,7 @@
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="57" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I15" s="52">
         <f>'Resultado '!D9</f>
@@ -11017,7 +11020,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="49">
@@ -11039,7 +11042,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="47">
@@ -11060,7 +11063,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="51">
@@ -11094,7 +11097,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha5">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="B1:M16"/>
@@ -11127,15 +11130,15 @@
     </row>
     <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="19"/>
-      <c r="C2" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="120"/>
+      <c r="C2" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="121"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="120"/>
+      <c r="F2" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="121"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -11144,7 +11147,7 @@
     <row r="3" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
       <c r="C3" s="32" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="33">
         <f>SUM('Receitas - Mapa'!B4:M6)</f>
@@ -11167,7 +11170,7 @@
     <row r="4" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B4" s="19"/>
       <c r="C4" s="18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" s="25">
         <f>SUM('Receitas - Mapa'!B9:M11)</f>
@@ -11190,7 +11193,7 @@
     <row r="5" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B5" s="19"/>
       <c r="C5" s="18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5" s="25">
         <f>SUM('Receitas - Mapa'!B4:M6)-SUM('Receitas - Mapa'!B14:M16)-SUM('Receitas - Mapa'!B9:M11)</f>
@@ -11213,7 +11216,7 @@
     <row r="6" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B6" s="19"/>
       <c r="C6" s="18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D6" s="25">
         <f>SUM('Despesas - Mapa'!D7:D14,'Despesas - Mapa'!G7:G14,'Despesas - Mapa'!J7:J14,'Despesas - Mapa'!M7:M14,'Despesas - Mapa'!P7:P14,'Despesas - Mapa'!S7:S14,'Despesas - Mapa'!V7:V14,'Despesas - Mapa'!Y7:Y14,'Despesas - Mapa'!AB7:AB14,'Despesas - Mapa'!AE7:AE14,'Despesas - Mapa'!AH7:AH14,'Despesas - Mapa'!AK7:AK14)</f>
@@ -11236,7 +11239,7 @@
     <row r="7" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B7" s="19"/>
       <c r="C7" s="18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25">
         <f>SUM('Despesas - Mapa'!D15:D15,'Despesas - Mapa'!G15:G15,'Despesas - Mapa'!J15:J15,'Despesas - Mapa'!M15:M15,'Despesas - Mapa'!P15:P15,'Despesas - Mapa'!S15:S15,'Despesas - Mapa'!V15:V15,'Despesas - Mapa'!Y15:Y15,'Despesas - Mapa'!AB15:AB15,'Despesas - Mapa'!AE15:AE15,'Despesas - Mapa'!AH15:AH15,'Despesas - Mapa'!AK15:AK15)</f>
@@ -11259,7 +11262,7 @@
     <row r="8" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B8" s="19"/>
       <c r="C8" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D8" s="25">
         <f>SUM(D6:D7)</f>
@@ -11282,7 +11285,7 @@
     <row r="9" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9" s="27">
         <f>'Despesas - Mapa'!AK4</f>
@@ -11305,7 +11308,7 @@
     <row r="10" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B10" s="19"/>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10" s="27">
         <f>Resumo!D15</f>
@@ -11331,7 +11334,7 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="30">
         <f>SUM(G3:G10)</f>
@@ -11396,15 +11399,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD330F4-3FAE-447F-BF05-82EFBCBD7BD0}">
-  <sheetPr>
+  <sheetPr codeName="Planilha6">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A26:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:T27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="14" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" ht="9.3000000000000007" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
